--- a/data/msa_cpi.xlsx
+++ b/data/msa_cpi.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whelvey\Documents\GitHub\inflation_cr_expansion\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AEE8311-556D-4A15-B797-ADA15354DCB9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7571F31-0B89-43F2-AE99-962D432EACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C4BC9B-5B76-4DA9-B0C1-35CE8978BB28}"/>
   </bookViews>
@@ -515,13 +515,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84979F13-51A2-4875-BE01-3AE49E35B117}">
-  <dimension ref="A1:T1285"/>
+  <dimension ref="A1:T1287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B1265" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomRight" activeCell="N1285" sqref="N1285"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33638,15 +33638,11 @@
         <v>176.1</v>
       </c>
       <c r="N1025" s="3"/>
-      <c r="O1025" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1025" s="3"/>
       <c r="P1025" s="3">
         <v>169.3</v>
       </c>
-      <c r="Q1025" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1025" s="3"/>
       <c r="R1025" s="3"/>
       <c r="S1025" s="3"/>
       <c r="T1025" s="3">
@@ -33720,15 +33716,11 @@
         <v>177.8</v>
       </c>
       <c r="N1027" s="3"/>
-      <c r="O1027" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1027" s="3"/>
       <c r="P1027" s="3">
         <v>170.6</v>
       </c>
-      <c r="Q1027" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1027" s="3"/>
       <c r="R1027" s="3"/>
       <c r="S1027" s="3"/>
       <c r="T1027" s="3">
@@ -33802,15 +33794,11 @@
         <v>179.2</v>
       </c>
       <c r="N1029" s="3"/>
-      <c r="O1029" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1029" s="3"/>
       <c r="P1029" s="3">
         <v>171</v>
       </c>
-      <c r="Q1029" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1029" s="3"/>
       <c r="R1029" s="3"/>
       <c r="S1029" s="3"/>
       <c r="T1029" s="3">
@@ -33889,15 +33877,11 @@
         <v>180.3</v>
       </c>
       <c r="N1031" s="3"/>
-      <c r="O1031" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1031" s="3"/>
       <c r="P1031" s="3">
         <v>172.2</v>
       </c>
-      <c r="Q1031" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1031" s="3"/>
       <c r="R1031" s="3"/>
       <c r="S1031" s="3"/>
       <c r="T1031" s="3">
@@ -33971,15 +33955,11 @@
         <v>182.1</v>
       </c>
       <c r="N1033" s="3"/>
-      <c r="O1033" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1033" s="3"/>
       <c r="P1033" s="3">
         <v>173.8</v>
       </c>
-      <c r="Q1033" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1033" s="3"/>
       <c r="R1033" s="3"/>
       <c r="S1033" s="3"/>
       <c r="T1033" s="3">
@@ -34053,15 +34033,11 @@
         <v>181.5</v>
       </c>
       <c r="N1035" s="3"/>
-      <c r="O1035" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1035" s="3"/>
       <c r="P1035" s="3">
         <v>173.5</v>
       </c>
-      <c r="Q1035" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1035" s="3"/>
       <c r="R1035" s="3"/>
       <c r="S1035" s="3"/>
       <c r="T1035" s="3">
@@ -34146,15 +34122,11 @@
         <v>184</v>
       </c>
       <c r="N1037" s="3"/>
-      <c r="O1037" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1037" s="3"/>
       <c r="P1037" s="3">
         <v>175.4</v>
       </c>
-      <c r="Q1037" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1037" s="3"/>
       <c r="R1037" s="3"/>
       <c r="S1037" s="3"/>
       <c r="T1037" s="3">
@@ -34228,15 +34200,11 @@
         <v>184.2</v>
       </c>
       <c r="N1039" s="3"/>
-      <c r="O1039" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1039" s="3"/>
       <c r="P1039" s="3">
         <v>176.6</v>
       </c>
-      <c r="Q1039" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1039" s="3"/>
       <c r="R1039" s="3"/>
       <c r="S1039" s="3"/>
       <c r="T1039" s="3">
@@ -34310,15 +34278,11 @@
         <v>186.3</v>
       </c>
       <c r="N1041" s="3"/>
-      <c r="O1041" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1041" s="3"/>
       <c r="P1041" s="3">
         <v>178.9</v>
       </c>
-      <c r="Q1041" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1041" s="3"/>
       <c r="R1041" s="3"/>
       <c r="S1041" s="3"/>
       <c r="T1041" s="3">
@@ -34397,15 +34361,11 @@
         <v>186.8</v>
       </c>
       <c r="N1043" s="3"/>
-      <c r="O1043" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1043" s="3"/>
       <c r="P1043" s="3">
         <v>178.4</v>
       </c>
-      <c r="Q1043" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1043" s="3"/>
       <c r="R1043" s="3"/>
       <c r="S1043" s="3"/>
       <c r="T1043" s="3">
@@ -34479,15 +34439,11 @@
         <v>187.9</v>
       </c>
       <c r="N1045" s="3"/>
-      <c r="O1045" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1045" s="3"/>
       <c r="P1045" s="3">
         <v>178.3</v>
       </c>
-      <c r="Q1045" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1045" s="3"/>
       <c r="R1045" s="3"/>
       <c r="S1045" s="3"/>
       <c r="T1045" s="3">
@@ -34561,15 +34517,11 @@
         <v>186.1</v>
       </c>
       <c r="N1047" s="3"/>
-      <c r="O1047" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1047" s="3"/>
       <c r="P1047" s="3">
         <v>177.1</v>
       </c>
-      <c r="Q1047" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1047" s="3"/>
       <c r="R1047" s="3"/>
       <c r="S1047" s="3"/>
       <c r="T1047" s="3">
@@ -34656,15 +34608,11 @@
         <v>187.6</v>
       </c>
       <c r="N1049" s="3"/>
-      <c r="O1049" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1049" s="3"/>
       <c r="P1049" s="3">
         <v>180.1</v>
       </c>
-      <c r="Q1049" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1049" s="3"/>
       <c r="R1049" s="3"/>
       <c r="S1049" s="3"/>
       <c r="T1049" s="3">
@@ -34738,15 +34686,11 @@
         <v>188.8</v>
       </c>
       <c r="N1051" s="3"/>
-      <c r="O1051" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1051" s="3"/>
       <c r="P1051" s="3">
         <v>182.2</v>
       </c>
-      <c r="Q1051" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1051" s="3"/>
       <c r="R1051" s="3"/>
       <c r="S1051" s="3"/>
       <c r="T1051" s="3">
@@ -34820,15 +34764,11 @@
         <v>189.4</v>
       </c>
       <c r="N1053" s="3"/>
-      <c r="O1053" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1053" s="3"/>
       <c r="P1053" s="3">
         <v>181.9</v>
       </c>
-      <c r="Q1053" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1053" s="3"/>
       <c r="R1053" s="3"/>
       <c r="S1053" s="3"/>
       <c r="T1053" s="3">
@@ -34907,15 +34847,11 @@
         <v>190.3</v>
       </c>
       <c r="N1055" s="3"/>
-      <c r="O1055" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1055" s="3"/>
       <c r="P1055" s="3">
         <v>183</v>
       </c>
-      <c r="Q1055" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1055" s="3"/>
       <c r="R1055" s="3"/>
       <c r="S1055" s="3"/>
       <c r="T1055" s="3">
@@ -34989,15 +34925,11 @@
         <v>190.9</v>
       </c>
       <c r="N1057" s="3"/>
-      <c r="O1057" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1057" s="3"/>
       <c r="P1057" s="3">
         <v>183.7</v>
       </c>
-      <c r="Q1057" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1057" s="3"/>
       <c r="R1057" s="3"/>
       <c r="S1057" s="3"/>
       <c r="T1057" s="3">
@@ -35071,15 +35003,11 @@
         <v>190</v>
       </c>
       <c r="N1059" s="3"/>
-      <c r="O1059" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1059" s="3"/>
       <c r="P1059" s="3">
         <v>183.7</v>
       </c>
-      <c r="Q1059" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1059" s="3"/>
       <c r="R1059" s="3"/>
       <c r="S1059" s="3"/>
       <c r="T1059" s="3">
@@ -35166,15 +35094,11 @@
         <v>191.3</v>
       </c>
       <c r="N1061" s="3"/>
-      <c r="O1061" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1061" s="3"/>
       <c r="P1061" s="3">
         <v>186.5</v>
       </c>
-      <c r="Q1061" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1061" s="3"/>
       <c r="R1061" s="3"/>
       <c r="S1061" s="3"/>
       <c r="T1061" s="3">
@@ -35248,15 +35172,11 @@
         <v>192.3</v>
       </c>
       <c r="N1063" s="3"/>
-      <c r="O1063" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1063" s="3"/>
       <c r="P1063" s="3">
         <v>187.6</v>
       </c>
-      <c r="Q1063" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1063" s="3"/>
       <c r="R1063" s="3"/>
       <c r="S1063" s="3"/>
       <c r="T1063" s="3">
@@ -35330,15 +35250,11 @@
         <v>191.7</v>
       </c>
       <c r="N1065" s="3"/>
-      <c r="O1065" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1065" s="3"/>
       <c r="P1065" s="3">
         <v>186.3</v>
       </c>
-      <c r="Q1065" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1065" s="3"/>
       <c r="R1065" s="3"/>
       <c r="S1065" s="3"/>
       <c r="T1065" s="3">
@@ -35417,15 +35333,11 @@
         <v>194.4</v>
       </c>
       <c r="N1067" s="3"/>
-      <c r="O1067" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1067" s="3"/>
       <c r="P1067" s="3">
         <v>186.9</v>
       </c>
-      <c r="Q1067" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1067" s="3"/>
       <c r="R1067" s="3"/>
       <c r="S1067" s="3"/>
       <c r="T1067" s="3">
@@ -35499,15 +35411,11 @@
         <v>193.7</v>
       </c>
       <c r="N1069" s="3"/>
-      <c r="O1069" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1069" s="3"/>
       <c r="P1069" s="3">
         <v>187.8</v>
       </c>
-      <c r="Q1069" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1069" s="3"/>
       <c r="R1069" s="3"/>
       <c r="S1069" s="3"/>
       <c r="T1069" s="3">
@@ -35581,15 +35489,11 @@
         <v>191</v>
       </c>
       <c r="N1071" s="3"/>
-      <c r="O1071" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1071" s="3"/>
       <c r="P1071" s="3">
         <v>187</v>
       </c>
-      <c r="Q1071" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1071" s="3"/>
       <c r="R1071" s="3"/>
       <c r="S1071" s="3"/>
       <c r="T1071" s="3">
@@ -35676,15 +35580,11 @@
         <v>193.5</v>
       </c>
       <c r="N1073" s="3"/>
-      <c r="O1073" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1073" s="3"/>
       <c r="P1073" s="3">
         <v>190.1</v>
       </c>
-      <c r="Q1073" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1073" s="3"/>
       <c r="R1073" s="3"/>
       <c r="S1073" s="3"/>
       <c r="T1073" s="3">
@@ -35758,15 +35658,11 @@
         <v>194.3</v>
       </c>
       <c r="N1075" s="3"/>
-      <c r="O1075" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1075" s="3"/>
       <c r="P1075" s="3">
         <v>191.9</v>
       </c>
-      <c r="Q1075" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1075" s="3"/>
       <c r="R1075" s="3"/>
       <c r="S1075" s="3"/>
       <c r="T1075" s="3">
@@ -35840,15 +35736,11 @@
         <v>195.3</v>
       </c>
       <c r="N1077" s="3"/>
-      <c r="O1077" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1077" s="3"/>
       <c r="P1077" s="3">
         <v>193.7</v>
       </c>
-      <c r="Q1077" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1077" s="3"/>
       <c r="R1077" s="3"/>
       <c r="S1077" s="3"/>
       <c r="T1077" s="3">
@@ -35927,15 +35819,11 @@
         <v>194.6</v>
       </c>
       <c r="N1079" s="3"/>
-      <c r="O1079" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1079" s="3"/>
       <c r="P1079" s="3">
         <v>193.1</v>
       </c>
-      <c r="Q1079" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1079" s="3"/>
       <c r="R1079" s="3"/>
       <c r="S1079" s="3"/>
       <c r="T1079" s="3">
@@ -36009,15 +35897,11 @@
         <v>196.5</v>
       </c>
       <c r="N1081" s="3"/>
-      <c r="O1081" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1081" s="3"/>
       <c r="P1081" s="3">
         <v>196.3</v>
       </c>
-      <c r="Q1081" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1081" s="3"/>
       <c r="R1081" s="3"/>
       <c r="S1081" s="3"/>
       <c r="T1081" s="3">
@@ -36091,15 +35975,11 @@
         <v>195.1</v>
       </c>
       <c r="N1083" s="3"/>
-      <c r="O1083" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1083" s="3"/>
       <c r="P1083" s="3">
         <v>195.2</v>
       </c>
-      <c r="Q1083" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1083" s="3"/>
       <c r="R1083" s="3"/>
       <c r="S1083" s="3"/>
       <c r="T1083" s="3">
@@ -36186,15 +36066,11 @@
         <v>197.6</v>
       </c>
       <c r="N1085" s="3"/>
-      <c r="O1085" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1085" s="3"/>
       <c r="P1085" s="3">
         <v>197.4</v>
       </c>
-      <c r="Q1085" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1085" s="3"/>
       <c r="R1085" s="3"/>
       <c r="S1085" s="3"/>
       <c r="T1085" s="3">
@@ -36268,15 +36144,11 @@
         <v>201.3</v>
       </c>
       <c r="N1087" s="3"/>
-      <c r="O1087" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1087" s="3"/>
       <c r="P1087" s="3">
         <v>201.1</v>
       </c>
-      <c r="Q1087" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1087" s="3"/>
       <c r="R1087" s="3"/>
       <c r="S1087" s="3"/>
       <c r="T1087" s="3">
@@ -36350,15 +36222,11 @@
         <v>199.8</v>
       </c>
       <c r="N1089" s="3"/>
-      <c r="O1089" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1089" s="3"/>
       <c r="P1089" s="3">
         <v>200.7</v>
       </c>
-      <c r="Q1089" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1089" s="3"/>
       <c r="R1089" s="3"/>
       <c r="S1089" s="3"/>
       <c r="T1089" s="3">
@@ -36437,15 +36305,11 @@
         <v>199.9</v>
       </c>
       <c r="N1091" s="3"/>
-      <c r="O1091" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1091" s="3"/>
       <c r="P1091" s="3">
         <v>203.1</v>
       </c>
-      <c r="Q1091" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1091" s="3"/>
       <c r="R1091" s="3"/>
       <c r="S1091" s="3"/>
       <c r="T1091" s="3">
@@ -36519,15 +36383,11 @@
         <v>203.3</v>
       </c>
       <c r="N1093" s="3"/>
-      <c r="O1093" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1093" s="3"/>
       <c r="P1093" s="3">
         <v>206.9</v>
       </c>
-      <c r="Q1093" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1093" s="3"/>
       <c r="R1093" s="3"/>
       <c r="S1093" s="3"/>
       <c r="T1093" s="3">
@@ -36601,15 +36461,11 @@
         <v>200.9</v>
       </c>
       <c r="N1095" s="3"/>
-      <c r="O1095" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1095" s="3"/>
       <c r="P1095" s="3">
         <v>203.9</v>
       </c>
-      <c r="Q1095" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1095" s="3"/>
       <c r="R1095" s="3"/>
       <c r="S1095" s="3"/>
       <c r="T1095" s="3">
@@ -36696,15 +36552,11 @@
         <v>203.6</v>
       </c>
       <c r="N1097" s="3"/>
-      <c r="O1097" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1097" s="3"/>
       <c r="P1097" s="3">
         <v>207.5</v>
       </c>
-      <c r="Q1097" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1097" s="3"/>
       <c r="R1097" s="3"/>
       <c r="S1097" s="3"/>
       <c r="T1097" s="3">
@@ -36778,15 +36630,11 @@
         <v>207.4</v>
       </c>
       <c r="N1099" s="3"/>
-      <c r="O1099" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1099" s="3"/>
       <c r="P1099" s="3">
         <v>210.5</v>
       </c>
-      <c r="Q1099" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1099" s="3"/>
       <c r="R1099" s="3"/>
       <c r="S1099" s="3"/>
       <c r="T1099" s="3">
@@ -36860,15 +36708,11 @@
         <v>208.2</v>
       </c>
       <c r="N1101" s="3"/>
-      <c r="O1101" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1101" s="3"/>
       <c r="P1101" s="3">
         <v>211.1</v>
       </c>
-      <c r="Q1101" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1101" s="3"/>
       <c r="R1101" s="3"/>
       <c r="S1101" s="3"/>
       <c r="T1101" s="3">
@@ -36947,15 +36791,11 @@
         <v>209.6</v>
       </c>
       <c r="N1103" s="3"/>
-      <c r="O1103" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1103" s="3"/>
       <c r="P1103" s="3">
         <v>211.9</v>
       </c>
-      <c r="Q1103" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1103" s="3"/>
       <c r="R1103" s="3"/>
       <c r="S1103" s="3"/>
       <c r="T1103" s="3">
@@ -37029,15 +36869,11 @@
         <v>209.8</v>
       </c>
       <c r="N1105" s="3"/>
-      <c r="O1105" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1105" s="3"/>
       <c r="P1105" s="3">
         <v>211.4</v>
       </c>
-      <c r="Q1105" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1105" s="3"/>
       <c r="R1105" s="3"/>
       <c r="S1105" s="3"/>
       <c r="T1105" s="3">
@@ -37111,15 +36947,11 @@
         <v>209.3</v>
       </c>
       <c r="N1107" s="3"/>
-      <c r="O1107" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1107" s="3"/>
       <c r="P1107" s="3">
         <v>210.6</v>
       </c>
-      <c r="Q1107" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1107" s="3"/>
       <c r="R1107" s="3"/>
       <c r="S1107" s="3"/>
       <c r="T1107" s="3">
@@ -37206,15 +37038,11 @@
         <v>211.70400000000001</v>
       </c>
       <c r="N1109" s="3"/>
-      <c r="O1109" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1109" s="3"/>
       <c r="P1109" s="3">
         <v>214.76</v>
       </c>
-      <c r="Q1109" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1109" s="3"/>
       <c r="R1109" s="3"/>
       <c r="S1109" s="3"/>
       <c r="T1109" s="3">
@@ -37288,15 +37116,11 @@
         <v>215.767</v>
       </c>
       <c r="N1111" s="3"/>
-      <c r="O1111" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1111" s="3"/>
       <c r="P1111" s="3">
         <v>217.845</v>
       </c>
-      <c r="Q1111" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1111" s="3"/>
       <c r="R1111" s="3"/>
       <c r="S1111" s="3"/>
       <c r="T1111" s="3">
@@ -37370,15 +37194,11 @@
         <v>215.51</v>
       </c>
       <c r="N1113" s="3"/>
-      <c r="O1113" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1113" s="3"/>
       <c r="P1113" s="3">
         <v>217.273</v>
       </c>
-      <c r="Q1113" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1113" s="3"/>
       <c r="R1113" s="3"/>
       <c r="S1113" s="3"/>
       <c r="T1113" s="3">
@@ -37457,15 +37277,11 @@
         <v>215.97800000000001</v>
       </c>
       <c r="N1115" s="3"/>
-      <c r="O1115" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1115" s="3"/>
       <c r="P1115" s="3">
         <v>217.33</v>
       </c>
-      <c r="Q1115" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1115" s="3"/>
       <c r="R1115" s="3"/>
       <c r="S1115" s="3"/>
       <c r="T1115" s="3">
@@ -37539,15 +37355,11 @@
         <v>218.42699999999999</v>
       </c>
       <c r="N1117" s="3"/>
-      <c r="O1117" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1117" s="3"/>
       <c r="P1117" s="3">
         <v>218.696</v>
       </c>
-      <c r="Q1117" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1117" s="3"/>
       <c r="R1117" s="3"/>
       <c r="S1117" s="3"/>
       <c r="T1117" s="3">
@@ -37621,15 +37433,11 @@
         <v>218.96600000000001</v>
       </c>
       <c r="N1119" s="3"/>
-      <c r="O1119" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1119" s="3"/>
       <c r="P1119" s="3">
         <v>219.37299999999999</v>
       </c>
-      <c r="Q1119" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1119" s="3"/>
       <c r="R1119" s="3"/>
       <c r="S1119" s="3"/>
       <c r="T1119" s="3">
@@ -37716,15 +37524,11 @@
         <v>221.72800000000001</v>
       </c>
       <c r="N1121" s="3"/>
-      <c r="O1121" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1121" s="3"/>
       <c r="P1121" s="3">
         <v>221.43100000000001</v>
       </c>
-      <c r="Q1121" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1121" s="3"/>
       <c r="R1121" s="3"/>
       <c r="S1121" s="3"/>
       <c r="T1121" s="3">
@@ -37798,15 +37602,11 @@
         <v>223.196</v>
       </c>
       <c r="N1123" s="3"/>
-      <c r="O1123" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1123" s="3"/>
       <c r="P1123" s="3">
         <v>224.625</v>
       </c>
-      <c r="Q1123" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1123" s="3"/>
       <c r="R1123" s="3"/>
       <c r="S1123" s="3"/>
       <c r="T1123" s="3">
@@ -37880,15 +37680,11 @@
         <v>228.06800000000001</v>
       </c>
       <c r="N1125" s="3"/>
-      <c r="O1125" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1125" s="3"/>
       <c r="P1125" s="3">
         <v>229.03299999999999</v>
       </c>
-      <c r="Q1125" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1125" s="3"/>
       <c r="R1125" s="3"/>
       <c r="S1125" s="3"/>
       <c r="T1125" s="3">
@@ -37967,15 +37763,11 @@
         <v>227.745</v>
       </c>
       <c r="N1127" s="3"/>
-      <c r="O1127" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1127" s="3"/>
       <c r="P1127" s="3">
         <v>228.48400000000001</v>
       </c>
-      <c r="Q1127" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1127" s="3"/>
       <c r="R1127" s="3"/>
       <c r="S1127" s="3"/>
       <c r="T1127" s="3">
@@ -38049,15 +37841,11 @@
         <v>225.91499999999999</v>
       </c>
       <c r="N1129" s="3"/>
-      <c r="O1129" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1129" s="3"/>
       <c r="P1129" s="3">
         <v>226.15899999999999</v>
       </c>
-      <c r="Q1129" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1129" s="3"/>
       <c r="R1129" s="3"/>
       <c r="S1129" s="3"/>
       <c r="T1129" s="3">
@@ -38131,15 +37919,11 @@
         <v>222.58</v>
       </c>
       <c r="N1131" s="3"/>
-      <c r="O1131" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1131" s="3"/>
       <c r="P1131" s="3">
         <v>219.62</v>
       </c>
-      <c r="Q1131" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1131" s="3"/>
       <c r="R1131" s="3"/>
       <c r="S1131" s="3"/>
       <c r="T1131" s="3">
@@ -38226,15 +38010,11 @@
         <v>224.73699999999999</v>
       </c>
       <c r="N1133" s="3"/>
-      <c r="O1133" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1133" s="3"/>
       <c r="P1133" s="3">
         <v>221.43899999999999</v>
       </c>
-      <c r="Q1133" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1133" s="3"/>
       <c r="R1133" s="3"/>
       <c r="S1133" s="3"/>
       <c r="T1133" s="3">
@@ -38308,15 +38088,11 @@
         <v>225.91800000000001</v>
       </c>
       <c r="N1135" s="3"/>
-      <c r="O1135" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1135" s="3"/>
       <c r="P1135" s="3">
         <v>221.69300000000001</v>
       </c>
-      <c r="Q1135" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1135" s="3"/>
       <c r="R1135" s="3"/>
       <c r="S1135" s="3"/>
       <c r="T1135" s="3">
@@ -38390,15 +38166,11 @@
         <v>227.25700000000001</v>
       </c>
       <c r="N1137" s="3"/>
-      <c r="O1137" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1137" s="3"/>
       <c r="P1137" s="3">
         <v>223.90600000000001</v>
       </c>
-      <c r="Q1137" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1137" s="3"/>
       <c r="R1137" s="3"/>
       <c r="S1137" s="3"/>
       <c r="T1137" s="3">
@@ -38477,15 +38249,11 @@
         <v>227.13800000000001</v>
       </c>
       <c r="N1139" s="3"/>
-      <c r="O1139" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1139" s="3"/>
       <c r="P1139" s="3">
         <v>224.50700000000001</v>
       </c>
-      <c r="Q1139" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1139" s="3"/>
       <c r="R1139" s="3"/>
       <c r="S1139" s="3"/>
       <c r="T1139" s="3">
@@ -38559,15 +38327,11 @@
         <v>226.27699999999999</v>
       </c>
       <c r="N1141" s="3"/>
-      <c r="O1141" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1141" s="3"/>
       <c r="P1141" s="3">
         <v>225.26400000000001</v>
       </c>
-      <c r="Q1141" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1141" s="3"/>
       <c r="R1141" s="3"/>
       <c r="S1141" s="3"/>
       <c r="T1141" s="3">
@@ -38641,15 +38405,11 @@
         <v>225.596</v>
       </c>
       <c r="N1143" s="3"/>
-      <c r="O1143" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1143" s="3"/>
       <c r="P1143" s="3">
         <v>223.643</v>
       </c>
-      <c r="Q1143" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1143" s="3"/>
       <c r="R1143" s="3"/>
       <c r="S1143" s="3"/>
       <c r="T1143" s="3">
@@ -38736,15 +38496,11 @@
         <v>226.08500000000001</v>
       </c>
       <c r="N1145" s="3"/>
-      <c r="O1145" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1145" s="3"/>
       <c r="P1145" s="3">
         <v>224.62</v>
       </c>
-      <c r="Q1145" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1145" s="3"/>
       <c r="R1145" s="3"/>
       <c r="S1145" s="3"/>
       <c r="T1145" s="3">
@@ -38818,15 +38574,11 @@
         <v>226.51300000000001</v>
       </c>
       <c r="N1147" s="3"/>
-      <c r="O1147" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1147" s="3"/>
       <c r="P1147" s="3">
         <v>225.916</v>
       </c>
-      <c r="Q1147" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1147" s="3"/>
       <c r="R1147" s="3"/>
       <c r="S1147" s="3"/>
       <c r="T1147" s="3">
@@ -38900,15 +38652,11 @@
         <v>226.11799999999999</v>
       </c>
       <c r="N1149" s="3"/>
-      <c r="O1149" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1149" s="3"/>
       <c r="P1149" s="3">
         <v>225.87700000000001</v>
       </c>
-      <c r="Q1149" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1149" s="3"/>
       <c r="R1149" s="3"/>
       <c r="S1149" s="3"/>
       <c r="T1149" s="3">
@@ -38987,15 +38735,11 @@
         <v>227.64500000000001</v>
       </c>
       <c r="N1151" s="3"/>
-      <c r="O1151" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1151" s="3"/>
       <c r="P1151" s="3">
         <v>226.37299999999999</v>
       </c>
-      <c r="Q1151" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1151" s="3"/>
       <c r="R1151" s="3"/>
       <c r="S1151" s="3"/>
       <c r="T1151" s="3">
@@ -39069,15 +38813,11 @@
         <v>227.251</v>
       </c>
       <c r="N1153" s="3"/>
-      <c r="O1153" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1153" s="3"/>
       <c r="P1153" s="3">
         <v>226.79400000000001</v>
       </c>
-      <c r="Q1153" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1153" s="3"/>
       <c r="R1153" s="3"/>
       <c r="S1153" s="3"/>
       <c r="T1153" s="3">
@@ -39151,15 +38891,11 @@
         <v>226.86199999999999</v>
       </c>
       <c r="N1155" s="3"/>
-      <c r="O1155" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1155" s="3"/>
       <c r="P1155" s="3">
         <v>226.63900000000001</v>
       </c>
-      <c r="Q1155" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1155" s="3"/>
       <c r="R1155" s="3"/>
       <c r="S1155" s="3"/>
       <c r="T1155" s="3">
@@ -39246,15 +38982,11 @@
         <v>229.482</v>
       </c>
       <c r="N1157" s="3"/>
-      <c r="O1157" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1157" s="3"/>
       <c r="P1157" s="3">
         <v>229.72900000000001</v>
       </c>
-      <c r="Q1157" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1157" s="3"/>
       <c r="R1157" s="3"/>
       <c r="S1157" s="3"/>
       <c r="T1157" s="3">
@@ -39328,15 +39060,11 @@
         <v>231.31399999999999</v>
       </c>
       <c r="N1159" s="3"/>
-      <c r="O1159" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1159" s="3"/>
       <c r="P1159" s="3">
         <v>233.31899999999999</v>
       </c>
-      <c r="Q1159" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1159" s="3"/>
       <c r="R1159" s="3"/>
       <c r="S1159" s="3"/>
       <c r="T1159" s="3">
@@ -39410,15 +39138,11 @@
         <v>233.25</v>
       </c>
       <c r="N1161" s="3"/>
-      <c r="O1161" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1161" s="3"/>
       <c r="P1161" s="3">
         <v>232.328</v>
       </c>
-      <c r="Q1161" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1161" s="3"/>
       <c r="R1161" s="3"/>
       <c r="S1161" s="3"/>
       <c r="T1161" s="3">
@@ -39497,15 +39221,11 @@
         <v>233.81</v>
       </c>
       <c r="N1163" s="3"/>
-      <c r="O1163" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1163" s="3"/>
       <c r="P1163" s="3">
         <v>231.833</v>
       </c>
-      <c r="Q1163" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1163" s="3"/>
       <c r="R1163" s="3"/>
       <c r="S1163" s="3"/>
       <c r="T1163" s="3">
@@ -39579,15 +39299,11 @@
         <v>235.916</v>
       </c>
       <c r="N1165" s="3"/>
-      <c r="O1165" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1165" s="3"/>
       <c r="P1165" s="3">
         <v>233.04900000000001</v>
       </c>
-      <c r="Q1165" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1165" s="3"/>
       <c r="R1165" s="3"/>
       <c r="S1165" s="3"/>
       <c r="T1165" s="3">
@@ -39661,15 +39377,11 @@
         <v>234.81200000000001</v>
       </c>
       <c r="N1167" s="3"/>
-      <c r="O1167" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1167" s="3"/>
       <c r="P1167" s="3">
         <v>231.56700000000001</v>
       </c>
-      <c r="Q1167" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1167" s="3"/>
       <c r="R1167" s="3"/>
       <c r="S1167" s="3"/>
       <c r="T1167" s="3">
@@ -39756,15 +39468,11 @@
         <v>235.744</v>
       </c>
       <c r="N1169" s="3"/>
-      <c r="O1169" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1169" s="3"/>
       <c r="P1169" s="3">
         <v>234.53700000000001</v>
       </c>
-      <c r="Q1169" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1169" s="3"/>
       <c r="R1169" s="3"/>
       <c r="S1169" s="3"/>
       <c r="T1169" s="3">
@@ -39838,15 +39546,11 @@
         <v>237.93100000000001</v>
       </c>
       <c r="N1171" s="3"/>
-      <c r="O1171" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1171" s="3"/>
       <c r="P1171" s="3">
         <v>236.86600000000001</v>
       </c>
-      <c r="Q1171" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1171" s="3"/>
       <c r="R1171" s="3"/>
       <c r="S1171" s="3"/>
       <c r="T1171" s="3">
@@ -39920,15 +39624,11 @@
         <v>239.54</v>
       </c>
       <c r="N1173" s="3"/>
-      <c r="O1173" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1173" s="3"/>
       <c r="P1173" s="3">
         <v>236.02500000000001</v>
       </c>
-      <c r="Q1173" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1173" s="3"/>
       <c r="R1173" s="3"/>
       <c r="S1173" s="3"/>
       <c r="T1173" s="3">
@@ -40007,15 +39707,11 @@
         <v>240.21299999999999</v>
       </c>
       <c r="N1175" s="3"/>
-      <c r="O1175" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1175" s="3"/>
       <c r="P1175" s="3">
         <v>237.22200000000001</v>
       </c>
-      <c r="Q1175" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1175" s="3"/>
       <c r="R1175" s="3"/>
       <c r="S1175" s="3"/>
       <c r="T1175" s="3">
@@ -40089,15 +39785,11 @@
         <v>241.35499999999999</v>
       </c>
       <c r="N1177" s="3"/>
-      <c r="O1177" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1177" s="3"/>
       <c r="P1177" s="3">
         <v>240.11099999999999</v>
       </c>
-      <c r="Q1177" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1177" s="3"/>
       <c r="R1177" s="3"/>
       <c r="S1177" s="3"/>
       <c r="T1177" s="3">
@@ -40171,15 +39863,11 @@
         <v>237.99299999999999</v>
       </c>
       <c r="N1179" s="3"/>
-      <c r="O1179" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1179" s="3"/>
       <c r="P1179" s="3">
         <v>236.042</v>
       </c>
-      <c r="Q1179" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1179" s="3"/>
       <c r="R1179" s="3"/>
       <c r="S1179" s="3"/>
       <c r="T1179" s="3">
@@ -40266,15 +39954,11 @@
         <v>239.898</v>
       </c>
       <c r="N1181" s="3"/>
-      <c r="O1181" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1181" s="3"/>
       <c r="P1181" s="3">
         <v>239.75299999999999</v>
       </c>
-      <c r="Q1181" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1181" s="3"/>
       <c r="R1181" s="3"/>
       <c r="S1181" s="3"/>
       <c r="T1181" s="3">
@@ -40348,15 +40032,11 @@
         <v>240.82300000000001</v>
       </c>
       <c r="N1183" s="3"/>
-      <c r="O1183" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1183" s="3"/>
       <c r="P1183" s="3">
         <v>239.04300000000001</v>
       </c>
-      <c r="Q1183" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1183" s="3"/>
       <c r="R1183" s="3"/>
       <c r="S1183" s="3"/>
       <c r="T1183" s="3">
@@ -40430,15 +40110,11 @@
         <v>242.82</v>
       </c>
       <c r="N1185" s="3"/>
-      <c r="O1185" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1185" s="3"/>
       <c r="P1185" s="3">
         <v>239.22300000000001</v>
       </c>
-      <c r="Q1185" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1185" s="3"/>
       <c r="R1185" s="3"/>
       <c r="S1185" s="3"/>
       <c r="T1185" s="3">
@@ -40517,15 +40193,11 @@
         <v>242.767</v>
       </c>
       <c r="N1187" s="3"/>
-      <c r="O1187" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1187" s="3"/>
       <c r="P1187" s="3">
         <v>239.21899999999999</v>
       </c>
-      <c r="Q1187" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1187" s="3"/>
       <c r="R1187" s="3"/>
       <c r="S1187" s="3"/>
       <c r="T1187" s="3">
@@ -40599,15 +40271,11 @@
         <v>242.78700000000001</v>
       </c>
       <c r="N1189" s="3"/>
-      <c r="O1189" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1189" s="3"/>
       <c r="P1189" s="3">
         <v>239.94</v>
       </c>
-      <c r="Q1189" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1189" s="3"/>
       <c r="R1189" s="3"/>
       <c r="S1189" s="3"/>
       <c r="T1189" s="3">
@@ -40681,15 +40349,11 @@
         <v>241.05500000000001</v>
       </c>
       <c r="N1191" s="3"/>
-      <c r="O1191" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1191" s="3"/>
       <c r="P1191" s="3">
         <v>238.74199999999999</v>
       </c>
-      <c r="Q1191" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1191" s="3"/>
       <c r="R1191" s="3"/>
       <c r="S1191" s="3"/>
       <c r="T1191" s="3">
@@ -40776,15 +40440,11 @@
         <v>242.77</v>
       </c>
       <c r="N1193" s="3"/>
-      <c r="O1193" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1193" s="3"/>
       <c r="P1193" s="3">
         <v>241.059</v>
       </c>
-      <c r="Q1193" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1193" s="3"/>
       <c r="R1193" s="3"/>
       <c r="S1193" s="3"/>
       <c r="T1193" s="3">
@@ -40858,15 +40518,11 @@
         <v>246.61600000000001</v>
       </c>
       <c r="N1195" s="3"/>
-      <c r="O1195" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1195" s="3"/>
       <c r="P1195" s="3">
         <v>242.43700000000001</v>
       </c>
-      <c r="Q1195" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1195" s="3"/>
       <c r="R1195" s="3"/>
       <c r="S1195" s="3"/>
       <c r="T1195" s="3">
@@ -40940,15 +40596,11 @@
         <v>247.642</v>
       </c>
       <c r="N1197" s="3"/>
-      <c r="O1197" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1197" s="3"/>
       <c r="P1197" s="3">
         <v>243.52799999999999</v>
       </c>
-      <c r="Q1197" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1197" s="3"/>
       <c r="R1197" s="3"/>
       <c r="S1197" s="3"/>
       <c r="T1197" s="3">
@@ -41027,15 +40679,11 @@
         <v>247.185</v>
       </c>
       <c r="N1199" s="3"/>
-      <c r="O1199" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1199" s="3"/>
       <c r="P1199" s="3">
         <v>243.55600000000001</v>
       </c>
-      <c r="Q1199" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1199" s="3"/>
       <c r="R1199" s="3"/>
       <c r="S1199" s="3"/>
       <c r="T1199" s="3">
@@ -41109,15 +40757,11 @@
         <v>247.85400000000001</v>
       </c>
       <c r="N1201" s="3"/>
-      <c r="O1201" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1201" s="3"/>
       <c r="P1201" s="3">
         <v>243.34100000000001</v>
       </c>
-      <c r="Q1201" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1201" s="3"/>
       <c r="R1201" s="3"/>
       <c r="S1201" s="3"/>
       <c r="T1201" s="3">
@@ -41191,15 +40835,11 @@
         <v>245.05</v>
       </c>
       <c r="N1203" s="3"/>
-      <c r="O1203" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1203" s="3"/>
       <c r="P1203" s="3">
         <v>240.47499999999999</v>
       </c>
-      <c r="Q1203" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1203" s="3"/>
       <c r="R1203" s="3"/>
       <c r="S1203" s="3"/>
       <c r="T1203" s="3">
@@ -41286,15 +40926,11 @@
         <v>245.49600000000001</v>
       </c>
       <c r="N1205" s="3"/>
-      <c r="O1205" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1205" s="3"/>
       <c r="P1205" s="3">
         <v>241.297</v>
       </c>
-      <c r="Q1205" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1205" s="3"/>
       <c r="R1205" s="3"/>
       <c r="S1205" s="3"/>
       <c r="T1205" s="3">
@@ -41368,15 +41004,11 @@
         <v>247.61099999999999</v>
       </c>
       <c r="N1207" s="3"/>
-      <c r="O1207" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1207" s="3"/>
       <c r="P1207" s="3">
         <v>243.56899999999999</v>
       </c>
-      <c r="Q1207" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1207" s="3"/>
       <c r="R1207" s="3"/>
       <c r="S1207" s="3"/>
       <c r="T1207" s="3">
@@ -41450,15 +41082,11 @@
         <v>251.62200000000001</v>
       </c>
       <c r="N1209" s="3"/>
-      <c r="O1209" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1209" s="3"/>
       <c r="P1209" s="3">
         <v>245.459</v>
       </c>
-      <c r="Q1209" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1209" s="3"/>
       <c r="R1209" s="3"/>
       <c r="S1209" s="3"/>
       <c r="T1209" s="3">
@@ -41537,15 +41165,11 @@
         <v>251.61699999999999</v>
       </c>
       <c r="N1211" s="3"/>
-      <c r="O1211" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1211" s="3"/>
       <c r="P1211" s="3">
         <v>246.328</v>
       </c>
-      <c r="Q1211" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1211" s="3"/>
       <c r="R1211" s="3"/>
       <c r="S1211" s="3"/>
       <c r="T1211" s="3">
@@ -41619,15 +41243,11 @@
         <v>250.83099999999999</v>
       </c>
       <c r="N1213" s="3"/>
-      <c r="O1213" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1213" s="3"/>
       <c r="P1213" s="3">
         <v>245.81200000000001</v>
       </c>
-      <c r="Q1213" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1213" s="3"/>
       <c r="R1213" s="3"/>
       <c r="S1213" s="3"/>
       <c r="T1213" s="3">
@@ -41701,15 +41321,11 @@
         <v>250.38499999999999</v>
       </c>
       <c r="N1215" s="3"/>
-      <c r="O1215" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1215" s="3"/>
       <c r="P1215" s="3">
         <v>245.357</v>
       </c>
-      <c r="Q1215" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1215" s="3"/>
       <c r="R1215" s="3"/>
       <c r="S1215" s="3"/>
       <c r="T1215" s="3">
@@ -41796,15 +41412,11 @@
         <v>250.94200000000001</v>
       </c>
       <c r="N1217" s="3"/>
-      <c r="O1217" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1217" s="3"/>
       <c r="P1217" s="3">
         <v>247.113</v>
       </c>
-      <c r="Q1217" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1217" s="3"/>
       <c r="R1217" s="3"/>
       <c r="S1217" s="3"/>
       <c r="T1217" s="3">
@@ -41878,15 +41490,11 @@
         <v>253.815</v>
       </c>
       <c r="N1219" s="3"/>
-      <c r="O1219" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1219" s="3"/>
       <c r="P1219" s="3">
         <v>248.36799999999999</v>
       </c>
-      <c r="Q1219" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1219" s="3"/>
       <c r="R1219" s="3"/>
       <c r="S1219" s="3"/>
       <c r="T1219" s="3">
@@ -41960,15 +41568,11 @@
         <v>256.09800000000001</v>
       </c>
       <c r="N1221" s="3"/>
-      <c r="O1221" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1221" s="3"/>
       <c r="P1221" s="3">
         <v>249.78899999999999</v>
       </c>
-      <c r="Q1221" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1221" s="3"/>
       <c r="R1221" s="3"/>
       <c r="S1221" s="3"/>
       <c r="T1221" s="3">
@@ -42047,15 +41651,11 @@
         <v>256.90699999999998</v>
       </c>
       <c r="N1223" s="3"/>
-      <c r="O1223" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1223" s="3"/>
       <c r="P1223" s="3">
         <v>249.7</v>
       </c>
-      <c r="Q1223" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1223" s="3"/>
       <c r="R1223" s="3"/>
       <c r="S1223" s="3"/>
       <c r="T1223" s="3">
@@ -42129,15 +41729,11 @@
         <v>256.94099999999997</v>
       </c>
       <c r="N1225" s="3"/>
-      <c r="O1225" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1225" s="3"/>
       <c r="P1225" s="3">
         <v>251.09800000000001</v>
       </c>
-      <c r="Q1225" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1225" s="3"/>
       <c r="R1225" s="3"/>
       <c r="S1225" s="3"/>
       <c r="T1225" s="3">
@@ -42211,15 +41807,11 @@
         <v>256.82100000000003</v>
       </c>
       <c r="N1227" s="3"/>
-      <c r="O1227" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1227" s="3"/>
       <c r="P1227" s="3">
         <v>250.18899999999999</v>
       </c>
-      <c r="Q1227" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1227" s="3"/>
       <c r="R1227" s="3"/>
       <c r="S1227" s="3"/>
       <c r="T1227" s="3">
@@ -42306,15 +41898,11 @@
         <v>259.50299999999999</v>
       </c>
       <c r="N1229" s="3"/>
-      <c r="O1229" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1229" s="3"/>
       <c r="P1229" s="3">
         <v>253.815</v>
       </c>
-      <c r="Q1229" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1229" s="3"/>
       <c r="R1229" s="3"/>
       <c r="S1229" s="3"/>
       <c r="T1229" s="3">
@@ -42388,15 +41976,11 @@
         <v>261.56</v>
       </c>
       <c r="N1231" s="3"/>
-      <c r="O1231" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1231" s="3"/>
       <c r="P1231" s="3">
         <v>254.971</v>
       </c>
-      <c r="Q1231" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1231" s="3"/>
       <c r="R1231" s="3"/>
       <c r="S1231" s="3"/>
       <c r="T1231" s="3">
@@ -42470,15 +42054,11 @@
         <v>263.75599999999997</v>
       </c>
       <c r="N1233" s="3"/>
-      <c r="O1233" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1233" s="3"/>
       <c r="P1233" s="3">
         <v>255.27500000000001</v>
       </c>
-      <c r="Q1233" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1233" s="3"/>
       <c r="R1233" s="3"/>
       <c r="S1233" s="3"/>
       <c r="T1233" s="3">
@@ -42557,15 +42137,11 @@
         <v>263.33300000000003</v>
       </c>
       <c r="N1235" s="3"/>
-      <c r="O1235" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1235" s="3"/>
       <c r="P1235" s="3">
         <v>256.73899999999998</v>
       </c>
-      <c r="Q1235" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1235" s="3"/>
       <c r="R1235" s="3"/>
       <c r="S1235" s="3"/>
       <c r="T1235" s="3">
@@ -42639,15 +42215,11 @@
         <v>264.65300000000002</v>
       </c>
       <c r="N1237" s="3"/>
-      <c r="O1237" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1237" s="3"/>
       <c r="P1237" s="3">
         <v>258.88299999999998</v>
       </c>
-      <c r="Q1237" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1237" s="3"/>
       <c r="R1237" s="3"/>
       <c r="S1237" s="3"/>
       <c r="T1237" s="3">
@@ -42721,9 +42293,7 @@
         <v>265.85000000000002</v>
       </c>
       <c r="N1239" s="3"/>
-      <c r="O1239" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1239" s="3"/>
       <c r="P1239" s="3">
         <v>259.22000000000003</v>
       </c>
@@ -42773,9 +42343,7 @@
       <c r="P1240" s="3">
         <v>261.23500000000001</v>
       </c>
-      <c r="Q1240" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1240" s="3"/>
       <c r="R1240" s="3">
         <v>292.54700000000003</v>
       </c>
@@ -42816,9 +42384,7 @@
         <v>268.03100000000001</v>
       </c>
       <c r="N1241" s="3"/>
-      <c r="O1241" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1241" s="3"/>
       <c r="P1241" s="3">
         <v>263.012</v>
       </c>
@@ -42859,9 +42425,7 @@
       <c r="P1242" s="3">
         <v>264.15800000000002</v>
       </c>
-      <c r="Q1242" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1242" s="3"/>
       <c r="R1242" s="3"/>
       <c r="S1242" s="3"/>
       <c r="T1242" s="3">
@@ -42898,9 +42462,7 @@
         <v>270.30900000000003</v>
       </c>
       <c r="N1243" s="3"/>
-      <c r="O1243" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1243" s="3"/>
       <c r="P1243" s="3">
         <v>265.09500000000003</v>
       </c>
@@ -42941,9 +42503,7 @@
       <c r="P1244" s="3">
         <v>266.14800000000002</v>
       </c>
-      <c r="Q1244" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1244" s="3"/>
       <c r="R1244" s="3"/>
       <c r="S1244" s="3"/>
       <c r="T1244" s="3">
@@ -42980,9 +42540,7 @@
         <v>272.39499999999998</v>
       </c>
       <c r="N1245" s="3"/>
-      <c r="O1245" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1245" s="3"/>
       <c r="P1245" s="3">
         <v>265.52199999999999</v>
       </c>
@@ -43028,9 +42586,7 @@
       <c r="P1246" s="3">
         <v>266.00700000000001</v>
       </c>
-      <c r="Q1246" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1246" s="3"/>
       <c r="R1246" s="3"/>
       <c r="S1246" s="3"/>
       <c r="T1246" s="3">
@@ -43067,9 +42623,7 @@
         <v>271.625</v>
       </c>
       <c r="N1247" s="3"/>
-      <c r="O1247" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1247" s="3"/>
       <c r="P1247" s="3">
         <v>266.66500000000002</v>
       </c>
@@ -43110,9 +42664,7 @@
       <c r="P1248" s="3">
         <v>268.03199999999998</v>
       </c>
-      <c r="Q1248" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1248" s="3"/>
       <c r="R1248" s="3"/>
       <c r="S1248" s="3"/>
       <c r="T1248" s="3">
@@ -43149,9 +42701,7 @@
         <v>272.80500000000001</v>
       </c>
       <c r="N1249" s="3"/>
-      <c r="O1249" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1249" s="3"/>
       <c r="P1249" s="3">
         <v>269.48200000000003</v>
       </c>
@@ -43192,9 +42742,7 @@
       <c r="P1250" s="3">
         <v>268.56</v>
       </c>
-      <c r="Q1250" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1250" s="3"/>
       <c r="R1250" s="3"/>
       <c r="S1250" s="3"/>
       <c r="T1250" s="3">
@@ -43231,9 +42779,7 @@
         <v>273.29300000000001</v>
       </c>
       <c r="N1251" s="3"/>
-      <c r="O1251" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1251" s="3"/>
       <c r="P1251" s="3">
         <v>267.63099999999997</v>
       </c>
@@ -43283,9 +42829,7 @@
       <c r="P1252" s="3">
         <v>269.46800000000002</v>
       </c>
-      <c r="Q1252" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1252" s="3"/>
       <c r="R1252" s="3">
         <v>299.43299999999999</v>
       </c>
@@ -43326,9 +42870,7 @@
         <v>275.30399999999997</v>
       </c>
       <c r="N1253" s="3"/>
-      <c r="O1253" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1253" s="3"/>
       <c r="P1253" s="3">
         <v>269.608</v>
       </c>
@@ -43369,9 +42911,7 @@
       <c r="P1254" s="3">
         <v>271.31099999999998</v>
       </c>
-      <c r="Q1254" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1254" s="3"/>
       <c r="R1254" s="3"/>
       <c r="S1254" s="3"/>
       <c r="T1254" s="3">
@@ -43408,9 +42948,7 @@
         <v>276.76499999999999</v>
       </c>
       <c r="N1255" s="3"/>
-      <c r="O1255" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1255" s="3"/>
       <c r="P1255" s="3">
         <v>273.94499999999999</v>
       </c>
@@ -43451,9 +42989,7 @@
       <c r="P1256" s="3">
         <v>274.47899999999998</v>
       </c>
-      <c r="Q1256" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1256" s="3"/>
       <c r="R1256" s="3"/>
       <c r="S1256" s="3"/>
       <c r="T1256" s="3">
@@ -43490,9 +43026,7 @@
         <v>278.63099999999997</v>
       </c>
       <c r="N1257" s="3"/>
-      <c r="O1257" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1257" s="3"/>
       <c r="P1257" s="3">
         <v>274.38</v>
       </c>
@@ -43538,9 +43072,7 @@
       <c r="P1258" s="3">
         <v>274.68200000000002</v>
       </c>
-      <c r="Q1258" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1258" s="3"/>
       <c r="R1258" s="3"/>
       <c r="S1258" s="3"/>
       <c r="T1258" s="3">
@@ -43577,9 +43109,7 @@
         <v>280.286</v>
       </c>
       <c r="N1259" s="3"/>
-      <c r="O1259" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1259" s="3"/>
       <c r="P1259" s="3">
         <v>274.57900000000001</v>
       </c>
@@ -43620,9 +43150,7 @@
       <c r="P1260" s="3">
         <v>276.05399999999997</v>
       </c>
-      <c r="Q1260" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1260" s="3"/>
       <c r="R1260" s="3"/>
       <c r="S1260" s="3"/>
       <c r="T1260" s="3">
@@ -43659,9 +43187,7 @@
         <v>278.68200000000002</v>
       </c>
       <c r="N1261" s="3"/>
-      <c r="O1261" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1261" s="3"/>
       <c r="P1261" s="3">
         <v>278.07499999999999</v>
       </c>
@@ -43702,9 +43228,7 @@
       <c r="P1262" s="3">
         <v>277.23899999999998</v>
       </c>
-      <c r="Q1262" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1262" s="3"/>
       <c r="R1262" s="3"/>
       <c r="S1262" s="3"/>
       <c r="T1262" s="3">
@@ -43741,9 +43265,7 @@
         <v>279.42099999999999</v>
       </c>
       <c r="N1263" s="3"/>
-      <c r="O1263" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1263" s="3"/>
       <c r="P1263" s="3">
         <v>275.553</v>
       </c>
@@ -43793,9 +43315,7 @@
       <c r="P1264" s="3">
         <v>277.755</v>
       </c>
-      <c r="Q1264" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1264" s="3"/>
       <c r="R1264" s="3">
         <v>303.93200000000002</v>
       </c>
@@ -43836,9 +43356,7 @@
         <v>282.11500000000001</v>
       </c>
       <c r="N1265" s="3"/>
-      <c r="O1265" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1265" s="3"/>
       <c r="P1265" s="3">
         <v>278.65699999999998</v>
       </c>
@@ -43879,9 +43397,7 @@
       <c r="P1266" s="3">
         <v>276.589</v>
       </c>
-      <c r="Q1266" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1266" s="3"/>
       <c r="R1266" s="3"/>
       <c r="S1266" s="3"/>
       <c r="T1266" s="3">
@@ -43918,9 +43434,7 @@
         <v>280.48399999999998</v>
       </c>
       <c r="N1267" s="3"/>
-      <c r="O1267" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1267" s="3"/>
       <c r="P1267" s="3">
         <v>275.85300000000001</v>
       </c>
@@ -43961,9 +43475,7 @@
       <c r="P1268" s="3">
         <v>276.84199999999998</v>
       </c>
-      <c r="Q1268" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1268" s="3"/>
       <c r="R1268" s="3"/>
       <c r="S1268" s="3"/>
       <c r="T1268" s="3">
@@ -44000,9 +43512,7 @@
         <v>281.05500000000001</v>
       </c>
       <c r="N1269" s="3"/>
-      <c r="O1269" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1269" s="3"/>
       <c r="P1269" s="3">
         <v>278.12099999999998</v>
       </c>
@@ -44048,9 +43558,7 @@
       <c r="P1270" s="3">
         <v>279.899</v>
       </c>
-      <c r="Q1270" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1270" s="3"/>
       <c r="R1270" s="3"/>
       <c r="S1270" s="3"/>
       <c r="T1270" s="3">
@@ -44087,9 +43595,7 @@
         <v>284.90499999999997</v>
       </c>
       <c r="N1271" s="3"/>
-      <c r="O1271" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1271" s="3"/>
       <c r="P1271" s="3">
         <v>280.11599999999999</v>
       </c>
@@ -44130,9 +43636,7 @@
       <c r="P1272" s="3">
         <v>279.36599999999999</v>
       </c>
-      <c r="Q1272" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1272" s="3"/>
       <c r="R1272" s="3"/>
       <c r="S1272" s="3"/>
       <c r="T1272" s="3">
@@ -44169,9 +43673,7 @@
         <v>284.505</v>
       </c>
       <c r="N1273" s="3"/>
-      <c r="O1273" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1273" s="3"/>
       <c r="P1273" s="3">
         <v>279.947</v>
       </c>
@@ -44212,9 +43714,7 @@
       <c r="P1274" s="3">
         <v>280.10199999999998</v>
       </c>
-      <c r="Q1274" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1274" s="3"/>
       <c r="R1274" s="3"/>
       <c r="S1274" s="3"/>
       <c r="T1274" s="3">
@@ -44251,9 +43751,7 @@
         <v>283.40899999999999</v>
       </c>
       <c r="N1275" s="3"/>
-      <c r="O1275" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1275" s="3"/>
       <c r="P1275" s="3">
         <v>279.56</v>
       </c>
@@ -44299,9 +43797,7 @@
       <c r="P1276" s="3">
         <v>280.178</v>
       </c>
-      <c r="Q1276" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1276" s="3"/>
       <c r="R1276" s="3"/>
       <c r="S1276" s="3"/>
       <c r="T1276" s="3">
@@ -44338,9 +43834,7 @@
         <v>286.95</v>
       </c>
       <c r="N1277" s="3"/>
-      <c r="O1277" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1277" s="3"/>
       <c r="P1277" s="3">
         <v>281.34699999999998</v>
       </c>
@@ -44381,9 +43875,7 @@
       <c r="P1278" s="3">
         <v>282.64800000000002</v>
       </c>
-      <c r="Q1278" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1278" s="3"/>
       <c r="R1278" s="3"/>
       <c r="S1278" s="3"/>
       <c r="T1278" s="3">
@@ -44420,9 +43912,7 @@
         <v>290.06799999999998</v>
       </c>
       <c r="N1279" s="3"/>
-      <c r="O1279" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1279" s="3"/>
       <c r="P1279" s="3">
         <v>285.80799999999999</v>
       </c>
@@ -44463,9 +43953,7 @@
       <c r="P1280" s="3">
         <v>287.62</v>
       </c>
-      <c r="Q1280" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1280" s="3"/>
       <c r="R1280" s="3"/>
       <c r="S1280" s="3"/>
       <c r="T1280" s="3">
@@ -44502,9 +43990,7 @@
         <v>296.57299999999998</v>
       </c>
       <c r="N1281" s="3"/>
-      <c r="O1281" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1281" s="3"/>
       <c r="P1281" s="3">
         <v>289.21800000000002</v>
       </c>
@@ -44545,9 +44031,7 @@
       <c r="P1282" s="3">
         <v>290.89</v>
       </c>
-      <c r="Q1282" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1282" s="3"/>
       <c r="R1282" s="3"/>
       <c r="S1282" s="3"/>
       <c r="T1282" s="3">
@@ -44584,9 +44068,7 @@
         <v>299.70400000000001</v>
       </c>
       <c r="N1283" s="3"/>
-      <c r="O1283" s="3">
-        <v>0</v>
-      </c>
+      <c r="O1283" s="3"/>
       <c r="P1283" s="3">
         <v>291.33300000000003</v>
       </c>
@@ -44627,9 +44109,7 @@
       <c r="P1284" s="3">
         <v>292.209</v>
       </c>
-      <c r="Q1284" s="3">
-        <v>0</v>
-      </c>
+      <c r="Q1284" s="3"/>
       <c r="R1284" s="3"/>
       <c r="S1284" s="3"/>
       <c r="T1284" s="3">
@@ -44637,6 +44117,9 @@
       </c>
     </row>
     <row r="1285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1285" s="1">
+        <v>44470</v>
+      </c>
       <c r="C1285" s="2">
         <v>274.64699999999999</v>
       </c>
@@ -44658,6 +44141,12 @@
       <c r="T1285">
         <v>296.47199999999998</v>
       </c>
+    </row>
+    <row r="1286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1286" s="1"/>
+    </row>
+    <row r="1287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A1287" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/msa_cpi.xlsx
+++ b/data/msa_cpi.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\inflation_cr_expansion\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7571F31-0B89-43F2-AE99-962D432EACD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DB684-9524-4090-9519-1E8BF2FF2C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54C4BC9B-5B76-4DA9-B0C1-35CE8978BB28}"/>
+    <workbookView xWindow="32520" yWindow="3720" windowWidth="21600" windowHeight="11385" xr2:uid="{54C4BC9B-5B76-4DA9-B0C1-35CE8978BB28}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,15 +34,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>CUURA103SA0</t>
-  </si>
-  <si>
-    <t>boston</t>
-  </si>
-  <si>
-    <t>msa</t>
   </si>
   <si>
     <t>code</t>
@@ -51,19 +45,10 @@
     <t>CUURA102SA0</t>
   </si>
   <si>
-    <t>philadelphia</t>
-  </si>
-  <si>
     <t>CUURA207SA0</t>
   </si>
   <si>
-    <t>chicago</t>
-  </si>
-  <si>
     <t>CUURA316SA0</t>
-  </si>
-  <si>
-    <t>houston</t>
   </si>
   <si>
     <t>CUURA318SA0</t>
@@ -72,28 +57,13 @@
     <t>CUURA319SA0</t>
   </si>
   <si>
-    <t>atlanta</t>
-  </si>
-  <si>
     <t>CUURA320SA0</t>
-  </si>
-  <si>
-    <t>miami</t>
   </si>
   <si>
     <t>CUURA422SA0</t>
   </si>
   <si>
-    <t>san_francisco</t>
-  </si>
-  <si>
-    <t>tampa</t>
-  </si>
-  <si>
     <t>CUUSA321SA0S</t>
-  </si>
-  <si>
-    <t>minneapolis</t>
   </si>
   <si>
     <t>CUUSA211SA0</t>
@@ -102,31 +72,16 @@
     <t>CUUSA209SA0</t>
   </si>
   <si>
-    <t>seattle</t>
-  </si>
-  <si>
     <t>CUURA423SA0</t>
   </si>
   <si>
-    <t>denver</t>
-  </si>
-  <si>
     <t>CUUSA433SA0</t>
-  </si>
-  <si>
-    <t>los_angeles</t>
   </si>
   <si>
     <t>CUURS49ASA0</t>
   </si>
   <si>
     <t>CUURS35ASA0</t>
-  </si>
-  <si>
-    <t>washington_dc</t>
-  </si>
-  <si>
-    <t>baltimore</t>
   </si>
   <si>
     <t>CUURS35ESA0</t>
@@ -141,19 +96,79 @@
     <t>CUUSA429SA0</t>
   </si>
   <si>
-    <t>san_diego</t>
+    <t>Boston</t>
   </si>
   <si>
-    <t>phoenix</t>
+    <t>Philadelphia</t>
   </si>
   <si>
-    <t>new_york</t>
+    <t>Chicago</t>
   </si>
   <si>
-    <t>dallas</t>
+    <t>Dallas</t>
   </si>
   <si>
-    <t>saint_louis</t>
+    <t>Houston</t>
+  </si>
+  <si>
+    <t>Atlanta</t>
+  </si>
+  <si>
+    <t>Miami</t>
+  </si>
+  <si>
+    <t>SanFrancisco</t>
+  </si>
+  <si>
+    <t>Tampa</t>
+  </si>
+  <si>
+    <t>Minneapolis</t>
+  </si>
+  <si>
+    <t>StLouis</t>
+  </si>
+  <si>
+    <t>Seattle</t>
+  </si>
+  <si>
+    <t>Denver</t>
+  </si>
+  <si>
+    <t>WashingtonDC</t>
+  </si>
+  <si>
+    <t>LosAngeles</t>
+  </si>
+  <si>
+    <t>Baltimore</t>
+  </si>
+  <si>
+    <t>SanDiego</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>NewYork</t>
+  </si>
+  <si>
+    <t>SanAntonio</t>
+  </si>
+  <si>
+    <t>SanJose</t>
+  </si>
+  <si>
+    <t>Indianapolis</t>
+  </si>
+  <si>
+    <t>Columbus</t>
+  </si>
+  <si>
+    <t>Jacksonville</t>
+  </si>
+  <si>
+    <t>date</t>
   </si>
 </sst>
 </file>
@@ -515,13 +530,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84979F13-51A2-4875-BE01-3AE49E35B117}">
-  <dimension ref="A1:T1287"/>
+  <dimension ref="A1:Y1287"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B1265" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="N1285" sqref="N1285"/>
+      <selection pane="bottomRight" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -530,131 +545,146 @@
     <col min="10" max="10" width="10.140625" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
         <v>13</v>
       </c>
-      <c r="I1" t="s">
+      <c r="O1" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="P1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
         <v>18</v>
       </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B2" t="s">
         <v>20</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C2" t="s">
         <v>21</v>
       </c>
-      <c r="M1" t="s">
+      <c r="D2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
         <v>23</v>
       </c>
-      <c r="N1" t="s">
+      <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="O1" t="s">
+      <c r="H2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="P1" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="K2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M2" t="s">
         <v>31</v>
       </c>
-      <c r="R1" t="s">
+      <c r="N2" t="s">
         <v>32</v>
       </c>
-      <c r="S1" t="s">
+      <c r="O2" t="s">
+        <v>33</v>
+      </c>
+      <c r="P2" t="s">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="Q2" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="s">
+        <v>36</v>
+      </c>
+      <c r="S2" t="s">
+        <v>37</v>
+      </c>
+      <c r="T2" t="s">
         <v>38</v>
       </c>
-      <c r="F2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="U2" t="s">
         <v>39</v>
       </c>
-      <c r="M2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>30</v>
-      </c>
-      <c r="R2" t="s">
-        <v>35</v>
-      </c>
-      <c r="S2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V2" t="s">
+        <v>40</v>
+      </c>
+      <c r="W2" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>5449</v>
       </c>
@@ -691,7 +721,7 @@
         <v>9.9</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>5480</v>
       </c>
@@ -714,7 +744,7 @@
       <c r="S4" s="3"/>
       <c r="T4" s="3"/>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>5511</v>
       </c>
@@ -737,7 +767,7 @@
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5539</v>
       </c>
@@ -760,7 +790,7 @@
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5570</v>
       </c>
@@ -783,7 +813,7 @@
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>5600</v>
       </c>
@@ -806,7 +836,7 @@
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5631</v>
       </c>
@@ -829,7 +859,7 @@
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5661</v>
       </c>
@@ -852,7 +882,7 @@
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>5692</v>
       </c>
@@ -875,7 +905,7 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>5723</v>
       </c>
@@ -898,7 +928,7 @@
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>5753</v>
       </c>
@@ -921,7 +951,7 @@
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>5784</v>
       </c>
@@ -944,7 +974,7 @@
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>5814</v>
       </c>
@@ -981,7 +1011,7 @@
         <v>10.1</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>5845</v>
       </c>
@@ -33015,7 +33045,7 @@
         <v>174.4</v>
       </c>
     </row>
-    <row r="1009" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1009" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1009" s="1">
         <v>36069</v>
       </c>
@@ -33054,7 +33084,7 @@
         <v>174.8</v>
       </c>
     </row>
-    <row r="1010" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1010" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1010" s="1">
         <v>36100</v>
       </c>
@@ -33085,7 +33115,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="1011" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1011" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1011" s="1">
         <v>36130</v>
       </c>
@@ -33124,7 +33154,7 @@
         <v>174.7</v>
       </c>
     </row>
-    <row r="1012" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1012" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1012" s="1">
         <v>36161</v>
       </c>
@@ -33166,7 +33196,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="1013" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1013" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1013" s="1">
         <v>36192</v>
       </c>
@@ -33205,7 +33235,7 @@
         <v>175.1</v>
       </c>
     </row>
-    <row r="1014" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1014" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1014" s="1">
         <v>36220</v>
       </c>
@@ -33236,7 +33266,7 @@
         <v>175.5</v>
       </c>
     </row>
-    <row r="1015" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1015" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1015" s="1">
         <v>36251</v>
       </c>
@@ -33275,7 +33305,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="1016" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1016" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1016" s="1">
         <v>36281</v>
       </c>
@@ -33306,7 +33336,7 @@
         <v>176.1</v>
       </c>
     </row>
-    <row r="1017" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1017" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1017" s="1">
         <v>36312</v>
       </c>
@@ -33345,7 +33375,7 @@
         <v>176.8</v>
       </c>
     </row>
-    <row r="1018" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1018" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1018" s="1">
         <v>36342</v>
       </c>
@@ -33381,7 +33411,7 @@
         <v>177.2</v>
       </c>
     </row>
-    <row r="1019" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1019" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1019" s="1">
         <v>36373</v>
       </c>
@@ -33420,7 +33450,7 @@
         <v>177.6</v>
       </c>
     </row>
-    <row r="1020" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1020" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1020" s="1">
         <v>36404</v>
       </c>
@@ -33451,7 +33481,7 @@
         <v>178.2</v>
       </c>
     </row>
-    <row r="1021" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1021" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1021" s="1">
         <v>36434</v>
       </c>
@@ -33490,7 +33520,7 @@
         <v>178.9</v>
       </c>
     </row>
-    <row r="1022" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1022" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1022" s="1">
         <v>36465</v>
       </c>
@@ -33521,7 +33551,7 @@
         <v>178.8</v>
       </c>
     </row>
-    <row r="1023" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1023" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1023" s="1">
         <v>36495</v>
       </c>
@@ -33560,7 +33590,7 @@
         <v>178.6</v>
       </c>
     </row>
-    <row r="1024" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1024" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1024" s="1">
         <v>36526</v>
       </c>
@@ -33607,8 +33637,24 @@
       <c r="T1024" s="3">
         <v>179.3</v>
       </c>
-    </row>
-    <row r="1025" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1024">
+        <v>107.4</v>
+      </c>
+      <c r="V1024">
+        <v>180.2</v>
+      </c>
+      <c r="W1024">
+        <v>107.6</v>
+      </c>
+      <c r="X1024">
+        <f>W1024</f>
+        <v>107.6</v>
+      </c>
+      <c r="Y1024">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1025" s="1">
         <v>36557</v>
       </c>
@@ -33648,8 +33694,24 @@
       <c r="T1025" s="3">
         <v>180.5</v>
       </c>
-    </row>
-    <row r="1026" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1025">
+        <v>107.4</v>
+      </c>
+      <c r="V1025">
+        <v>180.2</v>
+      </c>
+      <c r="W1025">
+        <v>107.6</v>
+      </c>
+      <c r="X1025">
+        <f t="shared" ref="X1025:X1088" si="0">W1025</f>
+        <v>107.6</v>
+      </c>
+      <c r="Y1025">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1026" s="1">
         <v>36586</v>
       </c>
@@ -33685,8 +33747,24 @@
       <c r="T1026" s="3">
         <v>181.5</v>
       </c>
-    </row>
-    <row r="1027" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1026">
+        <v>107.4</v>
+      </c>
+      <c r="V1026">
+        <v>180.2</v>
+      </c>
+      <c r="W1026">
+        <v>107.6</v>
+      </c>
+      <c r="X1026">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1026">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1027" s="1">
         <v>36617</v>
       </c>
@@ -33726,8 +33804,24 @@
       <c r="T1027" s="3">
         <v>181.4</v>
       </c>
-    </row>
-    <row r="1028" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1027">
+        <v>107.4</v>
+      </c>
+      <c r="V1027">
+        <v>180.2</v>
+      </c>
+      <c r="W1027">
+        <v>107.6</v>
+      </c>
+      <c r="X1027">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1027">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1028" s="1">
         <v>36647</v>
       </c>
@@ -33763,8 +33857,24 @@
       <c r="T1028" s="3">
         <v>181.4</v>
       </c>
-    </row>
-    <row r="1029" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1028">
+        <v>107.4</v>
+      </c>
+      <c r="V1028">
+        <v>180.2</v>
+      </c>
+      <c r="W1028">
+        <v>107.6</v>
+      </c>
+      <c r="X1028">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1028">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1029" s="1">
         <v>36678</v>
       </c>
@@ -33804,8 +33914,24 @@
       <c r="T1029" s="3">
         <v>182</v>
       </c>
-    </row>
-    <row r="1030" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1029">
+        <v>107.4</v>
+      </c>
+      <c r="V1029">
+        <v>180.2</v>
+      </c>
+      <c r="W1029">
+        <v>107.6</v>
+      </c>
+      <c r="X1029">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1029">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1030" s="1">
         <v>36708</v>
       </c>
@@ -33846,8 +33972,24 @@
       <c r="T1030" s="3">
         <v>182.8</v>
       </c>
-    </row>
-    <row r="1031" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1030">
+        <v>107.4</v>
+      </c>
+      <c r="V1030">
+        <v>180.2</v>
+      </c>
+      <c r="W1030">
+        <v>107.6</v>
+      </c>
+      <c r="X1030">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1030">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1031" s="1">
         <v>36739</v>
       </c>
@@ -33887,8 +34029,24 @@
       <c r="T1031" s="3">
         <v>183.1</v>
       </c>
-    </row>
-    <row r="1032" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1031">
+        <v>107.4</v>
+      </c>
+      <c r="V1031">
+        <v>180.2</v>
+      </c>
+      <c r="W1031">
+        <v>107.6</v>
+      </c>
+      <c r="X1031">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1031">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1032" s="1">
         <v>36770</v>
       </c>
@@ -33924,8 +34082,24 @@
       <c r="T1032" s="3">
         <v>184.4</v>
       </c>
-    </row>
-    <row r="1033" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1032">
+        <v>107.4</v>
+      </c>
+      <c r="V1032">
+        <v>180.2</v>
+      </c>
+      <c r="W1032">
+        <v>107.6</v>
+      </c>
+      <c r="X1032">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1032">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1033" s="1">
         <v>36800</v>
       </c>
@@ -33965,8 +34139,24 @@
       <c r="T1033" s="3">
         <v>184.6</v>
       </c>
-    </row>
-    <row r="1034" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1033">
+        <v>107.4</v>
+      </c>
+      <c r="V1033">
+        <v>180.2</v>
+      </c>
+      <c r="W1033">
+        <v>107.6</v>
+      </c>
+      <c r="X1033">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1033">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1034" s="1">
         <v>36831</v>
       </c>
@@ -34002,8 +34192,24 @@
       <c r="T1034" s="3">
         <v>184.6</v>
       </c>
-    </row>
-    <row r="1035" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1034">
+        <v>107.4</v>
+      </c>
+      <c r="V1034">
+        <v>180.2</v>
+      </c>
+      <c r="W1034">
+        <v>107.6</v>
+      </c>
+      <c r="X1034">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1034">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1035" s="1">
         <v>36861</v>
       </c>
@@ -34043,8 +34249,24 @@
       <c r="T1035" s="3">
         <v>184.2</v>
       </c>
-    </row>
-    <row r="1036" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1035">
+        <v>107.4</v>
+      </c>
+      <c r="V1035">
+        <v>180.2</v>
+      </c>
+      <c r="W1035">
+        <v>107.6</v>
+      </c>
+      <c r="X1035">
+        <f t="shared" si="0"/>
+        <v>107.6</v>
+      </c>
+      <c r="Y1035">
+        <v>107.4</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1036" s="1">
         <v>36892</v>
       </c>
@@ -34091,8 +34313,24 @@
       <c r="T1036" s="3">
         <v>184.9</v>
       </c>
-    </row>
-    <row r="1037" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1036">
+        <v>109.6</v>
+      </c>
+      <c r="V1036">
+        <v>189.9</v>
+      </c>
+      <c r="W1036">
+        <v>110.3</v>
+      </c>
+      <c r="X1036">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1036">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1037" s="1">
         <v>36923</v>
       </c>
@@ -34132,8 +34370,24 @@
       <c r="T1037" s="3">
         <v>185.3</v>
       </c>
-    </row>
-    <row r="1038" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1037">
+        <v>109.6</v>
+      </c>
+      <c r="V1037">
+        <v>189.9</v>
+      </c>
+      <c r="W1037">
+        <v>110.3</v>
+      </c>
+      <c r="X1037">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1037">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1038" s="1">
         <v>36951</v>
       </c>
@@ -34169,8 +34423,24 @@
       <c r="T1038" s="3">
         <v>186.4</v>
       </c>
-    </row>
-    <row r="1039" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1038">
+        <v>109.6</v>
+      </c>
+      <c r="V1038">
+        <v>189.9</v>
+      </c>
+      <c r="W1038">
+        <v>110.3</v>
+      </c>
+      <c r="X1038">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1038">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1039" s="1">
         <v>36982</v>
       </c>
@@ -34210,8 +34480,24 @@
       <c r="T1039" s="3">
         <v>186.6</v>
       </c>
-    </row>
-    <row r="1040" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1039">
+        <v>109.6</v>
+      </c>
+      <c r="V1039">
+        <v>189.9</v>
+      </c>
+      <c r="W1039">
+        <v>110.3</v>
+      </c>
+      <c r="X1039">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1039">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1040" s="1">
         <v>37012</v>
       </c>
@@ -34247,8 +34533,24 @@
       <c r="T1040" s="3">
         <v>187.3</v>
       </c>
-    </row>
-    <row r="1041" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1040">
+        <v>109.6</v>
+      </c>
+      <c r="V1040">
+        <v>189.9</v>
+      </c>
+      <c r="W1040">
+        <v>110.3</v>
+      </c>
+      <c r="X1040">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1040">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1041" s="1">
         <v>37043</v>
       </c>
@@ -34288,8 +34590,24 @@
       <c r="T1041" s="3">
         <v>188.3</v>
       </c>
-    </row>
-    <row r="1042" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1041">
+        <v>109.6</v>
+      </c>
+      <c r="V1041">
+        <v>189.9</v>
+      </c>
+      <c r="W1041">
+        <v>110.3</v>
+      </c>
+      <c r="X1041">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1041">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1042" s="1">
         <v>37073</v>
       </c>
@@ -34330,8 +34648,24 @@
       <c r="T1042" s="3">
         <v>187.8</v>
       </c>
-    </row>
-    <row r="1043" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1042">
+        <v>109.6</v>
+      </c>
+      <c r="V1042">
+        <v>189.9</v>
+      </c>
+      <c r="W1042">
+        <v>110.3</v>
+      </c>
+      <c r="X1042">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1042">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1043" s="1">
         <v>37104</v>
       </c>
@@ -34371,8 +34705,24 @@
       <c r="T1043" s="3">
         <v>188.1</v>
       </c>
-    </row>
-    <row r="1044" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1043">
+        <v>109.6</v>
+      </c>
+      <c r="V1043">
+        <v>189.9</v>
+      </c>
+      <c r="W1043">
+        <v>110.3</v>
+      </c>
+      <c r="X1043">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1043">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1044" s="1">
         <v>37135</v>
       </c>
@@ -34408,8 +34758,24 @@
       <c r="T1044" s="3">
         <v>188</v>
       </c>
-    </row>
-    <row r="1045" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1044">
+        <v>109.6</v>
+      </c>
+      <c r="V1044">
+        <v>189.9</v>
+      </c>
+      <c r="W1044">
+        <v>110.3</v>
+      </c>
+      <c r="X1044">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1044">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1045" s="1">
         <v>37165</v>
       </c>
@@ -34449,8 +34815,24 @@
       <c r="T1045" s="3">
         <v>187.8</v>
       </c>
-    </row>
-    <row r="1046" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1045">
+        <v>109.6</v>
+      </c>
+      <c r="V1045">
+        <v>189.9</v>
+      </c>
+      <c r="W1045">
+        <v>110.3</v>
+      </c>
+      <c r="X1045">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1045">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1046" s="1">
         <v>37196</v>
       </c>
@@ -34486,8 +34868,24 @@
       <c r="T1046" s="3">
         <v>187.8</v>
       </c>
-    </row>
-    <row r="1047" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1046">
+        <v>109.6</v>
+      </c>
+      <c r="V1046">
+        <v>189.9</v>
+      </c>
+      <c r="W1046">
+        <v>110.3</v>
+      </c>
+      <c r="X1046">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1046">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1047" s="1">
         <v>37226</v>
       </c>
@@ -34527,8 +34925,24 @@
       <c r="T1047" s="3">
         <v>187.3</v>
       </c>
-    </row>
-    <row r="1048" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1047">
+        <v>109.6</v>
+      </c>
+      <c r="V1047">
+        <v>189.9</v>
+      </c>
+      <c r="W1047">
+        <v>110.3</v>
+      </c>
+      <c r="X1047">
+        <f t="shared" si="0"/>
+        <v>110.3</v>
+      </c>
+      <c r="Y1047">
+        <v>109.6</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1048" s="1">
         <v>37257</v>
       </c>
@@ -34577,8 +34991,24 @@
       <c r="T1048" s="3">
         <v>188.5</v>
       </c>
-    </row>
-    <row r="1049" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1048">
+        <v>110.8</v>
+      </c>
+      <c r="V1048">
+        <v>193</v>
+      </c>
+      <c r="W1048">
+        <v>110.9</v>
+      </c>
+      <c r="X1048">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1048">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1049" s="1">
         <v>37288</v>
       </c>
@@ -34618,8 +35048,24 @@
       <c r="T1049" s="3">
         <v>189.9</v>
       </c>
-    </row>
-    <row r="1050" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1049">
+        <v>110.8</v>
+      </c>
+      <c r="V1049">
+        <v>193</v>
+      </c>
+      <c r="W1049">
+        <v>110.9</v>
+      </c>
+      <c r="X1049">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1049">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1050" s="1">
         <v>37316</v>
       </c>
@@ -34655,8 +35101,24 @@
       <c r="T1050" s="3">
         <v>191.1</v>
       </c>
-    </row>
-    <row r="1051" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1050">
+        <v>110.8</v>
+      </c>
+      <c r="V1050">
+        <v>193</v>
+      </c>
+      <c r="W1050">
+        <v>110.9</v>
+      </c>
+      <c r="X1050">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1050">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1051" s="1">
         <v>37347</v>
       </c>
@@ -34696,8 +35158,24 @@
       <c r="T1051" s="3">
         <v>191.8</v>
       </c>
-    </row>
-    <row r="1052" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1051">
+        <v>110.8</v>
+      </c>
+      <c r="V1051">
+        <v>193</v>
+      </c>
+      <c r="W1051">
+        <v>110.9</v>
+      </c>
+      <c r="X1051">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1051">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1052" s="1">
         <v>37377</v>
       </c>
@@ -34733,8 +35211,24 @@
       <c r="T1052" s="3">
         <v>191.4</v>
       </c>
-    </row>
-    <row r="1053" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1052">
+        <v>110.8</v>
+      </c>
+      <c r="V1052">
+        <v>193</v>
+      </c>
+      <c r="W1052">
+        <v>110.9</v>
+      </c>
+      <c r="X1052">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1052">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1053" s="1">
         <v>37408</v>
       </c>
@@ -34774,8 +35268,24 @@
       <c r="T1053" s="3">
         <v>191.5</v>
       </c>
-    </row>
-    <row r="1054" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1053">
+        <v>110.8</v>
+      </c>
+      <c r="V1053">
+        <v>193</v>
+      </c>
+      <c r="W1053">
+        <v>110.9</v>
+      </c>
+      <c r="X1053">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1053">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1054" s="1">
         <v>37438</v>
       </c>
@@ -34816,8 +35326,24 @@
       <c r="T1054" s="3">
         <v>192</v>
       </c>
-    </row>
-    <row r="1055" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1054">
+        <v>110.8</v>
+      </c>
+      <c r="V1054">
+        <v>193</v>
+      </c>
+      <c r="W1054">
+        <v>110.9</v>
+      </c>
+      <c r="X1054">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1054">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1055" s="1">
         <v>37469</v>
       </c>
@@ -34857,8 +35383,24 @@
       <c r="T1055" s="3">
         <v>193.1</v>
       </c>
-    </row>
-    <row r="1056" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1055">
+        <v>110.8</v>
+      </c>
+      <c r="V1055">
+        <v>193</v>
+      </c>
+      <c r="W1055">
+        <v>110.9</v>
+      </c>
+      <c r="X1055">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1055">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1056" s="1">
         <v>37500</v>
       </c>
@@ -34894,8 +35436,24 @@
       <c r="T1056" s="3">
         <v>193.3</v>
       </c>
-    </row>
-    <row r="1057" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1056">
+        <v>110.8</v>
+      </c>
+      <c r="V1056">
+        <v>193</v>
+      </c>
+      <c r="W1056">
+        <v>110.9</v>
+      </c>
+      <c r="X1056">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1056">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1057" s="1">
         <v>37530</v>
       </c>
@@ -34935,8 +35493,24 @@
       <c r="T1057" s="3">
         <v>193.7</v>
       </c>
-    </row>
-    <row r="1058" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1057">
+        <v>110.8</v>
+      </c>
+      <c r="V1057">
+        <v>193</v>
+      </c>
+      <c r="W1057">
+        <v>110.9</v>
+      </c>
+      <c r="X1057">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1057">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1058" s="1">
         <v>37561</v>
       </c>
@@ -34972,8 +35546,24 @@
       <c r="T1058" s="3">
         <v>193.4</v>
       </c>
-    </row>
-    <row r="1059" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1058">
+        <v>110.8</v>
+      </c>
+      <c r="V1058">
+        <v>193</v>
+      </c>
+      <c r="W1058">
+        <v>110.9</v>
+      </c>
+      <c r="X1058">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1058">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1059" s="1">
         <v>37591</v>
       </c>
@@ -35013,8 +35603,24 @@
       <c r="T1059" s="3">
         <v>193.1</v>
       </c>
-    </row>
-    <row r="1060" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1059">
+        <v>110.8</v>
+      </c>
+      <c r="V1059">
+        <v>193</v>
+      </c>
+      <c r="W1059">
+        <v>110.9</v>
+      </c>
+      <c r="X1059">
+        <f t="shared" si="0"/>
+        <v>110.9</v>
+      </c>
+      <c r="Y1059">
+        <v>110.8</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1060" s="1">
         <v>37622</v>
       </c>
@@ -35063,8 +35669,24 @@
       <c r="T1060" s="3">
         <v>194.7</v>
       </c>
-    </row>
-    <row r="1061" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1060">
+        <v>113.1</v>
+      </c>
+      <c r="V1060">
+        <v>196.4</v>
+      </c>
+      <c r="W1060">
+        <v>113.2</v>
+      </c>
+      <c r="X1060">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1060">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1061" s="1">
         <v>37653</v>
       </c>
@@ -35104,8 +35726,24 @@
       <c r="T1061" s="3">
         <v>196.2</v>
       </c>
-    </row>
-    <row r="1062" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1061">
+        <v>113.1</v>
+      </c>
+      <c r="V1061">
+        <v>196.4</v>
+      </c>
+      <c r="W1061">
+        <v>113.2</v>
+      </c>
+      <c r="X1061">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1061">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1062" s="1">
         <v>37681</v>
       </c>
@@ -35141,8 +35779,24 @@
       <c r="T1062" s="3">
         <v>197.1</v>
       </c>
-    </row>
-    <row r="1063" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1062">
+        <v>113.1</v>
+      </c>
+      <c r="V1062">
+        <v>196.4</v>
+      </c>
+      <c r="W1062">
+        <v>113.2</v>
+      </c>
+      <c r="X1062">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1062">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1063" s="1">
         <v>37712</v>
       </c>
@@ -35182,8 +35836,24 @@
       <c r="T1063" s="3">
         <v>196.7</v>
       </c>
-    </row>
-    <row r="1064" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1063">
+        <v>113.1</v>
+      </c>
+      <c r="V1063">
+        <v>196.4</v>
+      </c>
+      <c r="W1063">
+        <v>113.2</v>
+      </c>
+      <c r="X1063">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1063">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1064" s="1">
         <v>37742</v>
       </c>
@@ -35219,8 +35889,24 @@
       <c r="T1064" s="3">
         <v>196.8</v>
       </c>
-    </row>
-    <row r="1065" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1064">
+        <v>113.1</v>
+      </c>
+      <c r="V1064">
+        <v>196.4</v>
+      </c>
+      <c r="W1064">
+        <v>113.2</v>
+      </c>
+      <c r="X1064">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1064">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1065" s="1">
         <v>37773</v>
       </c>
@@ -35260,8 +35946,24 @@
       <c r="T1065" s="3">
         <v>196.9</v>
       </c>
-    </row>
-    <row r="1066" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1065">
+        <v>113.1</v>
+      </c>
+      <c r="V1065">
+        <v>196.4</v>
+      </c>
+      <c r="W1065">
+        <v>113.2</v>
+      </c>
+      <c r="X1065">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1065">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1066" s="1">
         <v>37803</v>
       </c>
@@ -35302,8 +36004,24 @@
       <c r="T1066" s="3">
         <v>197.7</v>
       </c>
-    </row>
-    <row r="1067" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1066">
+        <v>113.1</v>
+      </c>
+      <c r="V1066">
+        <v>196.4</v>
+      </c>
+      <c r="W1066">
+        <v>113.2</v>
+      </c>
+      <c r="X1066">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1066">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1067" s="1">
         <v>37834</v>
       </c>
@@ -35343,8 +36061,24 @@
       <c r="T1067" s="3">
         <v>199.1</v>
       </c>
-    </row>
-    <row r="1068" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1067">
+        <v>113.1</v>
+      </c>
+      <c r="V1067">
+        <v>196.4</v>
+      </c>
+      <c r="W1067">
+        <v>113.2</v>
+      </c>
+      <c r="X1067">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1067">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1068" s="1">
         <v>37865</v>
       </c>
@@ -35380,8 +36114,24 @@
       <c r="T1068" s="3">
         <v>199.6</v>
       </c>
-    </row>
-    <row r="1069" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1068">
+        <v>113.1</v>
+      </c>
+      <c r="V1068">
+        <v>196.4</v>
+      </c>
+      <c r="W1068">
+        <v>113.2</v>
+      </c>
+      <c r="X1068">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1068">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1069" s="1">
         <v>37895</v>
       </c>
@@ -35421,8 +36171,24 @@
       <c r="T1069" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="1070" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1069">
+        <v>113.1</v>
+      </c>
+      <c r="V1069">
+        <v>196.4</v>
+      </c>
+      <c r="W1069">
+        <v>113.2</v>
+      </c>
+      <c r="X1069">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1069">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1070" s="1">
         <v>37926</v>
       </c>
@@ -35458,8 +36224,24 @@
       <c r="T1070" s="3">
         <v>199.4</v>
       </c>
-    </row>
-    <row r="1071" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1070">
+        <v>113.1</v>
+      </c>
+      <c r="V1070">
+        <v>196.4</v>
+      </c>
+      <c r="W1070">
+        <v>113.2</v>
+      </c>
+      <c r="X1070">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1070">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1071" s="1">
         <v>37956</v>
       </c>
@@ -35499,8 +36281,24 @@
       <c r="T1071" s="3">
         <v>199.3</v>
       </c>
-    </row>
-    <row r="1072" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1071">
+        <v>113.1</v>
+      </c>
+      <c r="V1071">
+        <v>196.4</v>
+      </c>
+      <c r="W1071">
+        <v>113.2</v>
+      </c>
+      <c r="X1071">
+        <f t="shared" si="0"/>
+        <v>113.2</v>
+      </c>
+      <c r="Y1071">
+        <v>113.1</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1072" s="1">
         <v>37987</v>
       </c>
@@ -35549,8 +36347,24 @@
       <c r="T1072" s="3">
         <v>199.9</v>
       </c>
-    </row>
-    <row r="1073" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1072">
+        <v>116.2</v>
+      </c>
+      <c r="V1072">
+        <v>198.8</v>
+      </c>
+      <c r="W1072">
+        <v>116.2</v>
+      </c>
+      <c r="X1072">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1072">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1073" s="1">
         <v>38018</v>
       </c>
@@ -35590,8 +36404,24 @@
       <c r="T1073" s="3">
         <v>201.1</v>
       </c>
-    </row>
-    <row r="1074" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1073">
+        <v>116.2</v>
+      </c>
+      <c r="V1073">
+        <v>198.8</v>
+      </c>
+      <c r="W1073">
+        <v>116.2</v>
+      </c>
+      <c r="X1073">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1073">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1074" s="1">
         <v>38047</v>
       </c>
@@ -35627,8 +36457,24 @@
       <c r="T1074" s="3">
         <v>203.4</v>
       </c>
-    </row>
-    <row r="1075" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1074">
+        <v>116.2</v>
+      </c>
+      <c r="V1074">
+        <v>198.8</v>
+      </c>
+      <c r="W1074">
+        <v>116.2</v>
+      </c>
+      <c r="X1074">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1074">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1075" s="1">
         <v>38078</v>
       </c>
@@ -35668,8 +36514,24 @@
       <c r="T1075" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="1076" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1075">
+        <v>116.2</v>
+      </c>
+      <c r="V1075">
+        <v>198.8</v>
+      </c>
+      <c r="W1075">
+        <v>116.2</v>
+      </c>
+      <c r="X1075">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1075">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1076" s="1">
         <v>38108</v>
       </c>
@@ -35705,8 +36567,24 @@
       <c r="T1076" s="3">
         <v>204.4</v>
       </c>
-    </row>
-    <row r="1077" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1076">
+        <v>116.2</v>
+      </c>
+      <c r="V1076">
+        <v>198.8</v>
+      </c>
+      <c r="W1076">
+        <v>116.2</v>
+      </c>
+      <c r="X1076">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1076">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1077" s="1">
         <v>38139</v>
       </c>
@@ -35746,8 +36624,24 @@
       <c r="T1077" s="3">
         <v>206</v>
       </c>
-    </row>
-    <row r="1078" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1077">
+        <v>116.2</v>
+      </c>
+      <c r="V1077">
+        <v>198.8</v>
+      </c>
+      <c r="W1077">
+        <v>116.2</v>
+      </c>
+      <c r="X1077">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1077">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1078" s="1">
         <v>38169</v>
       </c>
@@ -35788,8 +36682,24 @@
       <c r="T1078" s="3">
         <v>205.5</v>
       </c>
-    </row>
-    <row r="1079" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1078">
+        <v>116.2</v>
+      </c>
+      <c r="V1078">
+        <v>198.8</v>
+      </c>
+      <c r="W1078">
+        <v>116.2</v>
+      </c>
+      <c r="X1078">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1078">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1079" s="1">
         <v>38200</v>
       </c>
@@ -35829,8 +36739,24 @@
       <c r="T1079" s="3">
         <v>205.7</v>
       </c>
-    </row>
-    <row r="1080" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1079">
+        <v>116.2</v>
+      </c>
+      <c r="V1079">
+        <v>198.8</v>
+      </c>
+      <c r="W1079">
+        <v>116.2</v>
+      </c>
+      <c r="X1079">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1079">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1080" s="1">
         <v>38231</v>
       </c>
@@ -35866,8 +36792,24 @@
       <c r="T1080" s="3">
         <v>205.9</v>
       </c>
-    </row>
-    <row r="1081" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1080">
+        <v>116.2</v>
+      </c>
+      <c r="V1080">
+        <v>198.8</v>
+      </c>
+      <c r="W1080">
+        <v>116.2</v>
+      </c>
+      <c r="X1080">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1080">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1081" s="1">
         <v>38261</v>
       </c>
@@ -35907,8 +36849,24 @@
       <c r="T1081" s="3">
         <v>207.3</v>
       </c>
-    </row>
-    <row r="1082" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1081">
+        <v>116.2</v>
+      </c>
+      <c r="V1081">
+        <v>198.8</v>
+      </c>
+      <c r="W1081">
+        <v>116.2</v>
+      </c>
+      <c r="X1081">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1081">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1082" s="1">
         <v>38292</v>
       </c>
@@ -35944,8 +36902,24 @@
       <c r="T1082" s="3">
         <v>207.2</v>
       </c>
-    </row>
-    <row r="1083" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1082">
+        <v>116.2</v>
+      </c>
+      <c r="V1082">
+        <v>198.8</v>
+      </c>
+      <c r="W1082">
+        <v>116.2</v>
+      </c>
+      <c r="X1082">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1082">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1083" s="1">
         <v>38322</v>
       </c>
@@ -35985,8 +36959,24 @@
       <c r="T1083" s="3">
         <v>206.8</v>
       </c>
-    </row>
-    <row r="1084" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1083">
+        <v>116.2</v>
+      </c>
+      <c r="V1083">
+        <v>198.8</v>
+      </c>
+      <c r="W1083">
+        <v>116.2</v>
+      </c>
+      <c r="X1083">
+        <f t="shared" si="0"/>
+        <v>116.2</v>
+      </c>
+      <c r="Y1083">
+        <v>116.2</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1084" s="1">
         <v>38353</v>
       </c>
@@ -36035,8 +37025,24 @@
       <c r="T1084" s="3">
         <v>208.1</v>
       </c>
-    </row>
-    <row r="1085" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1084">
+        <v>120</v>
+      </c>
+      <c r="V1084">
+        <v>202.7</v>
+      </c>
+      <c r="W1084">
+        <v>120.1</v>
+      </c>
+      <c r="X1084">
+        <f t="shared" si="0"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1084">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1085" s="1">
         <v>38384</v>
       </c>
@@ -36076,8 +37082,24 @@
       <c r="T1085" s="3">
         <v>208.9</v>
       </c>
-    </row>
-    <row r="1086" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1085">
+        <v>120</v>
+      </c>
+      <c r="V1085">
+        <v>202.7</v>
+      </c>
+      <c r="W1085">
+        <v>120.1</v>
+      </c>
+      <c r="X1085">
+        <f t="shared" si="0"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1085">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1086" s="1">
         <v>38412</v>
       </c>
@@ -36113,8 +37135,24 @@
       <c r="T1086" s="3">
         <v>212.4</v>
       </c>
-    </row>
-    <row r="1087" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1086">
+        <v>120</v>
+      </c>
+      <c r="V1086">
+        <v>202.7</v>
+      </c>
+      <c r="W1086">
+        <v>120.1</v>
+      </c>
+      <c r="X1086">
+        <f t="shared" si="0"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1086">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1087" s="1">
         <v>38443</v>
       </c>
@@ -36154,8 +37192,24 @@
       <c r="T1087" s="3">
         <v>212.5</v>
       </c>
-    </row>
-    <row r="1088" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1087">
+        <v>120</v>
+      </c>
+      <c r="V1087">
+        <v>202.7</v>
+      </c>
+      <c r="W1087">
+        <v>120.1</v>
+      </c>
+      <c r="X1087">
+        <f t="shared" si="0"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1087">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1088" s="1">
         <v>38473</v>
       </c>
@@ -36191,8 +37245,24 @@
       <c r="T1088" s="3">
         <v>211.4</v>
       </c>
-    </row>
-    <row r="1089" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1088">
+        <v>120</v>
+      </c>
+      <c r="V1088">
+        <v>202.7</v>
+      </c>
+      <c r="W1088">
+        <v>120.1</v>
+      </c>
+      <c r="X1088">
+        <f t="shared" si="0"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1088">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1089" s="1">
         <v>38504</v>
       </c>
@@ -36232,8 +37302,24 @@
       <c r="T1089" s="3">
         <v>210.7</v>
       </c>
-    </row>
-    <row r="1090" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1089">
+        <v>120</v>
+      </c>
+      <c r="V1089">
+        <v>202.7</v>
+      </c>
+      <c r="W1089">
+        <v>120.1</v>
+      </c>
+      <c r="X1089">
+        <f t="shared" ref="X1089:X1152" si="1">W1089</f>
+        <v>120.1</v>
+      </c>
+      <c r="Y1089">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1090" s="1">
         <v>38534</v>
       </c>
@@ -36274,8 +37360,24 @@
       <c r="T1090" s="3">
         <v>212.5</v>
       </c>
-    </row>
-    <row r="1091" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1090">
+        <v>120</v>
+      </c>
+      <c r="V1090">
+        <v>202.7</v>
+      </c>
+      <c r="W1090">
+        <v>120.1</v>
+      </c>
+      <c r="X1090">
+        <f t="shared" si="1"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1090">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1091" s="1">
         <v>38565</v>
       </c>
@@ -36315,8 +37417,24 @@
       <c r="T1091" s="3">
         <v>214.1</v>
       </c>
-    </row>
-    <row r="1092" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1091">
+        <v>120</v>
+      </c>
+      <c r="V1091">
+        <v>202.7</v>
+      </c>
+      <c r="W1091">
+        <v>120.1</v>
+      </c>
+      <c r="X1091">
+        <f t="shared" si="1"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1091">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1092" s="1">
         <v>38596</v>
       </c>
@@ -36352,8 +37470,24 @@
       <c r="T1092" s="3">
         <v>215.8</v>
       </c>
-    </row>
-    <row r="1093" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1092">
+        <v>120</v>
+      </c>
+      <c r="V1092">
+        <v>202.7</v>
+      </c>
+      <c r="W1092">
+        <v>120.1</v>
+      </c>
+      <c r="X1092">
+        <f t="shared" si="1"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1092">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1093" s="1">
         <v>38626</v>
       </c>
@@ -36393,8 +37527,24 @@
       <c r="T1093" s="3">
         <v>216.6</v>
       </c>
-    </row>
-    <row r="1094" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1093">
+        <v>120</v>
+      </c>
+      <c r="V1093">
+        <v>202.7</v>
+      </c>
+      <c r="W1093">
+        <v>120.1</v>
+      </c>
+      <c r="X1093">
+        <f t="shared" si="1"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1093">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1094" s="1">
         <v>38657</v>
       </c>
@@ -36430,8 +37580,24 @@
       <c r="T1094" s="3">
         <v>215.3</v>
       </c>
-    </row>
-    <row r="1095" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1094">
+        <v>120</v>
+      </c>
+      <c r="V1094">
+        <v>202.7</v>
+      </c>
+      <c r="W1094">
+        <v>120.1</v>
+      </c>
+      <c r="X1094">
+        <f t="shared" si="1"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1094">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1095" s="1">
         <v>38687</v>
       </c>
@@ -36471,8 +37637,24 @@
       <c r="T1095" s="3">
         <v>214.2</v>
       </c>
-    </row>
-    <row r="1096" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1095">
+        <v>120</v>
+      </c>
+      <c r="V1095">
+        <v>202.7</v>
+      </c>
+      <c r="W1095">
+        <v>120.1</v>
+      </c>
+      <c r="X1095">
+        <f t="shared" si="1"/>
+        <v>120.1</v>
+      </c>
+      <c r="Y1095">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1096" s="1">
         <v>38718</v>
       </c>
@@ -36521,8 +37703,24 @@
       <c r="T1096" s="3">
         <v>215.9</v>
       </c>
-    </row>
-    <row r="1097" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1096">
+        <v>123.9</v>
+      </c>
+      <c r="V1096">
+        <v>209.2</v>
+      </c>
+      <c r="W1096">
+        <v>123.1</v>
+      </c>
+      <c r="X1096">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1096">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1097" s="1">
         <v>38749</v>
       </c>
@@ -36562,8 +37760,24 @@
       <c r="T1097" s="3">
         <v>216.4</v>
       </c>
-    </row>
-    <row r="1098" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1097">
+        <v>123.9</v>
+      </c>
+      <c r="V1097">
+        <v>209.2</v>
+      </c>
+      <c r="W1097">
+        <v>123.1</v>
+      </c>
+      <c r="X1097">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1097">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1098" s="1">
         <v>38777</v>
       </c>
@@ -36599,8 +37813,24 @@
       <c r="T1098" s="3">
         <v>218.2</v>
       </c>
-    </row>
-    <row r="1099" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1098">
+        <v>123.9</v>
+      </c>
+      <c r="V1098">
+        <v>209.2</v>
+      </c>
+      <c r="W1098">
+        <v>123.1</v>
+      </c>
+      <c r="X1098">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1098">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1099" s="1">
         <v>38808</v>
       </c>
@@ -36640,8 +37870,24 @@
       <c r="T1099" s="3">
         <v>220.2</v>
       </c>
-    </row>
-    <row r="1100" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1099">
+        <v>123.9</v>
+      </c>
+      <c r="V1099">
+        <v>209.2</v>
+      </c>
+      <c r="W1099">
+        <v>123.1</v>
+      </c>
+      <c r="X1099">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1099">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1100" s="1">
         <v>38838</v>
       </c>
@@ -36677,8 +37923,24 @@
       <c r="T1100" s="3">
         <v>221.6</v>
       </c>
-    </row>
-    <row r="1101" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1100">
+        <v>123.9</v>
+      </c>
+      <c r="V1100">
+        <v>209.2</v>
+      </c>
+      <c r="W1100">
+        <v>123.1</v>
+      </c>
+      <c r="X1100">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1100">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1101" s="1">
         <v>38869</v>
       </c>
@@ -36718,8 +37980,24 @@
       <c r="T1101" s="3">
         <v>222.6</v>
       </c>
-    </row>
-    <row r="1102" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1101">
+        <v>123.9</v>
+      </c>
+      <c r="V1101">
+        <v>209.2</v>
+      </c>
+      <c r="W1101">
+        <v>123.1</v>
+      </c>
+      <c r="X1101">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1101">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1102" s="1">
         <v>38899</v>
       </c>
@@ -36760,8 +38038,24 @@
       <c r="T1102" s="3">
         <v>223.1</v>
       </c>
-    </row>
-    <row r="1103" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1102">
+        <v>123.9</v>
+      </c>
+      <c r="V1102">
+        <v>209.2</v>
+      </c>
+      <c r="W1102">
+        <v>123.1</v>
+      </c>
+      <c r="X1102">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1102">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1103" s="1">
         <v>38930</v>
       </c>
@@ -36801,8 +38095,24 @@
       <c r="T1103" s="3">
         <v>224.1</v>
       </c>
-    </row>
-    <row r="1104" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1103">
+        <v>123.9</v>
+      </c>
+      <c r="V1103">
+        <v>209.2</v>
+      </c>
+      <c r="W1103">
+        <v>123.1</v>
+      </c>
+      <c r="X1103">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1103">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1104" s="1">
         <v>38961</v>
       </c>
@@ -36838,8 +38148,24 @@
       <c r="T1104" s="3">
         <v>222.9</v>
       </c>
-    </row>
-    <row r="1105" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1104">
+        <v>123.9</v>
+      </c>
+      <c r="V1104">
+        <v>209.2</v>
+      </c>
+      <c r="W1104">
+        <v>123.1</v>
+      </c>
+      <c r="X1104">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1104">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1105" s="1">
         <v>38991</v>
       </c>
@@ -36879,8 +38205,24 @@
       <c r="T1105" s="3">
         <v>221.7</v>
       </c>
-    </row>
-    <row r="1106" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1105">
+        <v>123.9</v>
+      </c>
+      <c r="V1105">
+        <v>209.2</v>
+      </c>
+      <c r="W1105">
+        <v>123.1</v>
+      </c>
+      <c r="X1105">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1105">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1106" s="1">
         <v>39022</v>
       </c>
@@ -36916,8 +38258,24 @@
       <c r="T1106" s="3">
         <v>220.9</v>
       </c>
-    </row>
-    <row r="1107" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1106">
+        <v>123.9</v>
+      </c>
+      <c r="V1106">
+        <v>209.2</v>
+      </c>
+      <c r="W1106">
+        <v>123.1</v>
+      </c>
+      <c r="X1106">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1106">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1107" s="1">
         <v>39052</v>
       </c>
@@ -36957,8 +38315,24 @@
       <c r="T1107" s="3">
         <v>221.3</v>
       </c>
-    </row>
-    <row r="1108" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1107">
+        <v>123.9</v>
+      </c>
+      <c r="V1107">
+        <v>209.2</v>
+      </c>
+      <c r="W1107">
+        <v>123.1</v>
+      </c>
+      <c r="X1107">
+        <f t="shared" si="1"/>
+        <v>123.1</v>
+      </c>
+      <c r="Y1107">
+        <v>123.9</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1108" s="1">
         <v>39083</v>
       </c>
@@ -37007,8 +38381,24 @@
       <c r="T1108" s="3">
         <v>221.767</v>
       </c>
-    </row>
-    <row r="1109" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1108">
+        <v>127.422</v>
+      </c>
+      <c r="V1108">
+        <v>216.048</v>
+      </c>
+      <c r="W1108">
+        <v>126.458</v>
+      </c>
+      <c r="X1108">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1108">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1109" s="1">
         <v>39114</v>
       </c>
@@ -37048,8 +38438,24 @@
       <c r="T1109" s="3">
         <v>223.066</v>
       </c>
-    </row>
-    <row r="1110" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1109">
+        <v>127.422</v>
+      </c>
+      <c r="V1109">
+        <v>216.048</v>
+      </c>
+      <c r="W1109">
+        <v>126.458</v>
+      </c>
+      <c r="X1109">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1109">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1110" s="1">
         <v>39142</v>
       </c>
@@ -37085,8 +38491,24 @@
       <c r="T1110" s="3">
         <v>224.55099999999999</v>
       </c>
-    </row>
-    <row r="1111" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1110">
+        <v>127.422</v>
+      </c>
+      <c r="V1110">
+        <v>216.048</v>
+      </c>
+      <c r="W1110">
+        <v>126.458</v>
+      </c>
+      <c r="X1110">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1110">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1111" s="1">
         <v>39173</v>
       </c>
@@ -37126,8 +38548,24 @@
       <c r="T1111" s="3">
         <v>225.78</v>
       </c>
-    </row>
-    <row r="1112" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1111">
+        <v>127.422</v>
+      </c>
+      <c r="V1111">
+        <v>216.048</v>
+      </c>
+      <c r="W1111">
+        <v>126.458</v>
+      </c>
+      <c r="X1111">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1111">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1112" s="1">
         <v>39203</v>
       </c>
@@ -37163,8 +38601,24 @@
       <c r="T1112" s="3">
         <v>227.14599999999999</v>
       </c>
-    </row>
-    <row r="1113" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1112">
+        <v>127.422</v>
+      </c>
+      <c r="V1112">
+        <v>216.048</v>
+      </c>
+      <c r="W1112">
+        <v>126.458</v>
+      </c>
+      <c r="X1112">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1112">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1113" s="1">
         <v>39234</v>
       </c>
@@ -37204,8 +38658,24 @@
       <c r="T1113" s="3">
         <v>228.25800000000001</v>
       </c>
-    </row>
-    <row r="1114" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1113">
+        <v>127.422</v>
+      </c>
+      <c r="V1113">
+        <v>216.048</v>
+      </c>
+      <c r="W1113">
+        <v>126.458</v>
+      </c>
+      <c r="X1113">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1113">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1114" s="1">
         <v>39264</v>
       </c>
@@ -37246,8 +38716,24 @@
       <c r="T1114" s="3">
         <v>228.62799999999999</v>
       </c>
-    </row>
-    <row r="1115" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1114">
+        <v>127.422</v>
+      </c>
+      <c r="V1114">
+        <v>216.048</v>
+      </c>
+      <c r="W1114">
+        <v>126.458</v>
+      </c>
+      <c r="X1114">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1114">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1115" s="1">
         <v>39295</v>
       </c>
@@ -37287,8 +38773,24 @@
       <c r="T1115" s="3">
         <v>228.32599999999999</v>
       </c>
-    </row>
-    <row r="1116" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1115">
+        <v>127.422</v>
+      </c>
+      <c r="V1115">
+        <v>216.048</v>
+      </c>
+      <c r="W1115">
+        <v>126.458</v>
+      </c>
+      <c r="X1115">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1115">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1116" s="1">
         <v>39326</v>
       </c>
@@ -37324,8 +38826,24 @@
       <c r="T1116" s="3">
         <v>228.30799999999999</v>
       </c>
-    </row>
-    <row r="1117" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1116">
+        <v>127.422</v>
+      </c>
+      <c r="V1116">
+        <v>216.048</v>
+      </c>
+      <c r="W1116">
+        <v>126.458</v>
+      </c>
+      <c r="X1116">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1116">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1117" s="1">
         <v>39356</v>
       </c>
@@ -37365,8 +38883,24 @@
       <c r="T1117" s="3">
         <v>228.55199999999999</v>
       </c>
-    </row>
-    <row r="1118" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1117">
+        <v>127.422</v>
+      </c>
+      <c r="V1117">
+        <v>216.048</v>
+      </c>
+      <c r="W1117">
+        <v>126.458</v>
+      </c>
+      <c r="X1117">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1117">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1118" s="1">
         <v>39387</v>
       </c>
@@ -37402,8 +38936,24 @@
       <c r="T1118" s="3">
         <v>229.50399999999999</v>
       </c>
-    </row>
-    <row r="1119" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1118">
+        <v>127.422</v>
+      </c>
+      <c r="V1118">
+        <v>216.048</v>
+      </c>
+      <c r="W1118">
+        <v>126.458</v>
+      </c>
+      <c r="X1118">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1118">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1119" s="1">
         <v>39417</v>
       </c>
@@ -37443,8 +38993,24 @@
       <c r="T1119" s="3">
         <v>229.39500000000001</v>
       </c>
-    </row>
-    <row r="1120" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1119">
+        <v>127.422</v>
+      </c>
+      <c r="V1119">
+        <v>216.048</v>
+      </c>
+      <c r="W1119">
+        <v>126.458</v>
+      </c>
+      <c r="X1119">
+        <f t="shared" si="1"/>
+        <v>126.458</v>
+      </c>
+      <c r="Y1119">
+        <v>127.422</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1120" s="1">
         <v>39448</v>
       </c>
@@ -37493,8 +39059,24 @@
       <c r="T1120" s="3">
         <v>229.869</v>
       </c>
-    </row>
-    <row r="1121" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1120">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1120">
+        <v>222.767</v>
+      </c>
+      <c r="W1120">
+        <v>131.459</v>
+      </c>
+      <c r="X1120">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1120">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1121" s="1">
         <v>39479</v>
       </c>
@@ -37534,8 +39116,24 @@
       <c r="T1121" s="3">
         <v>231.02</v>
       </c>
-    </row>
-    <row r="1122" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1121">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1121">
+        <v>222.767</v>
+      </c>
+      <c r="W1121">
+        <v>131.459</v>
+      </c>
+      <c r="X1121">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1121">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1122" s="1">
         <v>39508</v>
       </c>
@@ -37571,8 +39169,24 @@
       <c r="T1122" s="3">
         <v>233.12200000000001</v>
       </c>
-    </row>
-    <row r="1123" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1122">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1122">
+        <v>222.767</v>
+      </c>
+      <c r="W1122">
+        <v>131.459</v>
+      </c>
+      <c r="X1122">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1122">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1123" s="1">
         <v>39539</v>
       </c>
@@ -37612,8 +39226,24 @@
       <c r="T1123" s="3">
         <v>233.822</v>
       </c>
-    </row>
-    <row r="1124" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1123">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1123">
+        <v>222.767</v>
+      </c>
+      <c r="W1123">
+        <v>131.459</v>
+      </c>
+      <c r="X1123">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1123">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1124" s="1">
         <v>39569</v>
       </c>
@@ -37649,8 +39279,24 @@
       <c r="T1124" s="3">
         <v>236.15100000000001</v>
       </c>
-    </row>
-    <row r="1125" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1124">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1124">
+        <v>222.767</v>
+      </c>
+      <c r="W1124">
+        <v>131.459</v>
+      </c>
+      <c r="X1124">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1124">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1125" s="1">
         <v>39600</v>
       </c>
@@ -37690,8 +39336,24 @@
       <c r="T1125" s="3">
         <v>238.58</v>
       </c>
-    </row>
-    <row r="1126" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1125">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1125">
+        <v>222.767</v>
+      </c>
+      <c r="W1125">
+        <v>131.459</v>
+      </c>
+      <c r="X1125">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1125">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1126" s="1">
         <v>39630</v>
       </c>
@@ -37732,8 +39394,24 @@
       <c r="T1126" s="3">
         <v>240.273</v>
       </c>
-    </row>
-    <row r="1127" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1126">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1126">
+        <v>222.767</v>
+      </c>
+      <c r="W1126">
+        <v>131.459</v>
+      </c>
+      <c r="X1126">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1126">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1127" s="1">
         <v>39661</v>
       </c>
@@ -37773,8 +39451,24 @@
       <c r="T1127" s="3">
         <v>240.55</v>
       </c>
-    </row>
-    <row r="1128" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1127">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1127">
+        <v>222.767</v>
+      </c>
+      <c r="W1127">
+        <v>131.459</v>
+      </c>
+      <c r="X1127">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1127">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1128" s="1">
         <v>39692</v>
       </c>
@@ -37810,8 +39504,24 @@
       <c r="T1128" s="3">
         <v>240.089</v>
       </c>
-    </row>
-    <row r="1129" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1128">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1128">
+        <v>222.767</v>
+      </c>
+      <c r="W1128">
+        <v>131.459</v>
+      </c>
+      <c r="X1128">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1128">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1129" s="1">
         <v>39722</v>
       </c>
@@ -37851,8 +39561,24 @@
       <c r="T1129" s="3">
         <v>238.40299999999999</v>
       </c>
-    </row>
-    <row r="1130" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1129">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1129">
+        <v>222.767</v>
+      </c>
+      <c r="W1129">
+        <v>131.459</v>
+      </c>
+      <c r="X1129">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1129">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1130" s="1">
         <v>39753</v>
       </c>
@@ -37888,8 +39614,24 @@
       <c r="T1130" s="3">
         <v>234.49799999999999</v>
       </c>
-    </row>
-    <row r="1131" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1130">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1130">
+        <v>222.767</v>
+      </c>
+      <c r="W1130">
+        <v>131.459</v>
+      </c>
+      <c r="X1130">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1130">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1131" s="1">
         <v>39783</v>
       </c>
@@ -37929,8 +39671,24 @@
       <c r="T1131" s="3">
         <v>233.012</v>
       </c>
-    </row>
-    <row r="1132" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1131">
+        <v>132.61600000000001</v>
+      </c>
+      <c r="V1131">
+        <v>222.767</v>
+      </c>
+      <c r="W1131">
+        <v>131.459</v>
+      </c>
+      <c r="X1131">
+        <f t="shared" si="1"/>
+        <v>131.459</v>
+      </c>
+      <c r="Y1131">
+        <v>132.61600000000001</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1132" s="1">
         <v>39814</v>
       </c>
@@ -37979,8 +39737,24 @@
       <c r="T1132" s="3">
         <v>233.40199999999999</v>
       </c>
-    </row>
-    <row r="1133" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1132">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1132">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1132">
+        <v>130.715</v>
+      </c>
+      <c r="X1132">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1132">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1133" s="1">
         <v>39845</v>
       </c>
@@ -38020,8 +39794,24 @@
       <c r="T1133" s="3">
         <v>234.66300000000001</v>
       </c>
-    </row>
-    <row r="1134" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1133">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1133">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1133">
+        <v>130.715</v>
+      </c>
+      <c r="X1133">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1133">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1134" s="1">
         <v>39873</v>
       </c>
@@ -38057,8 +39847,24 @@
       <c r="T1134" s="3">
         <v>235.06700000000001</v>
       </c>
-    </row>
-    <row r="1135" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1134">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1134">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1134">
+        <v>130.715</v>
+      </c>
+      <c r="X1134">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1134">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1135" s="1">
         <v>39904</v>
       </c>
@@ -38098,8 +39904,24 @@
       <c r="T1135" s="3">
         <v>235.58199999999999</v>
       </c>
-    </row>
-    <row r="1136" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1135">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1135">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1135">
+        <v>130.715</v>
+      </c>
+      <c r="X1135">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1135">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1136" s="1">
         <v>39934</v>
       </c>
@@ -38135,8 +39957,24 @@
       <c r="T1136" s="3">
         <v>235.97499999999999</v>
       </c>
-    </row>
-    <row r="1137" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1136">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1136">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1136">
+        <v>130.715</v>
+      </c>
+      <c r="X1136">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1136">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1137" s="1">
         <v>39965</v>
       </c>
@@ -38176,8 +40014,24 @@
       <c r="T1137" s="3">
         <v>237.172</v>
       </c>
-    </row>
-    <row r="1138" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1137">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1137">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1137">
+        <v>130.715</v>
+      </c>
+      <c r="X1137">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1137">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1138" s="1">
         <v>39995</v>
       </c>
@@ -38218,8 +40072,24 @@
       <c r="T1138" s="3">
         <v>237.6</v>
       </c>
-    </row>
-    <row r="1139" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1138">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1138">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1138">
+        <v>130.715</v>
+      </c>
+      <c r="X1138">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1138">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1139" s="1">
         <v>40026</v>
       </c>
@@ -38259,8 +40129,24 @@
       <c r="T1139" s="3">
         <v>238.28200000000001</v>
       </c>
-    </row>
-    <row r="1140" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1139">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1139">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1139">
+        <v>130.715</v>
+      </c>
+      <c r="X1139">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1139">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1140" s="1">
         <v>40057</v>
       </c>
@@ -38296,8 +40182,24 @@
       <c r="T1140" s="3">
         <v>238.56800000000001</v>
       </c>
-    </row>
-    <row r="1141" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1140">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1140">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1140">
+        <v>130.715</v>
+      </c>
+      <c r="X1140">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1140">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1141" s="1">
         <v>40087</v>
       </c>
@@ -38337,8 +40239,24 @@
       <c r="T1141" s="3">
         <v>238.38</v>
       </c>
-    </row>
-    <row r="1142" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1141">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1141">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1141">
+        <v>130.715</v>
+      </c>
+      <c r="X1141">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1141">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1142" s="1">
         <v>40118</v>
       </c>
@@ -38374,8 +40292,24 @@
       <c r="T1142" s="3">
         <v>238.77699999999999</v>
       </c>
-    </row>
-    <row r="1143" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1142">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1142">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1142">
+        <v>130.715</v>
+      </c>
+      <c r="X1142">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1142">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1143" s="1">
         <v>40148</v>
       </c>
@@ -38415,8 +40349,24 @@
       <c r="T1143" s="3">
         <v>238.42699999999999</v>
       </c>
-    </row>
-    <row r="1144" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1143">
+        <v>132.07400000000001</v>
+      </c>
+      <c r="V1143">
+        <v>224.39500000000001</v>
+      </c>
+      <c r="W1143">
+        <v>130.715</v>
+      </c>
+      <c r="X1143">
+        <f t="shared" si="1"/>
+        <v>130.715</v>
+      </c>
+      <c r="Y1143">
+        <v>132.07400000000001</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1144" s="1">
         <v>40179</v>
       </c>
@@ -38465,8 +40415,24 @@
       <c r="T1144" s="3">
         <v>238.97</v>
       </c>
-    </row>
-    <row r="1145" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1144">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1144">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1144">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1144">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1144">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1145" s="1">
         <v>40210</v>
       </c>
@@ -38506,8 +40472,24 @@
       <c r="T1145" s="3">
         <v>238.86199999999999</v>
       </c>
-    </row>
-    <row r="1146" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1145">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1145">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1145">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1145">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1145">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1146" s="1">
         <v>40238</v>
       </c>
@@ -38543,8 +40525,24 @@
       <c r="T1146" s="3">
         <v>240.101</v>
       </c>
-    </row>
-    <row r="1147" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1146">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1146">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1146">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1146">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1146">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1147" s="1">
         <v>40269</v>
       </c>
@@ -38584,8 +40582,24 @@
       <c r="T1147" s="3">
         <v>240.529</v>
       </c>
-    </row>
-    <row r="1148" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1147">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1147">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1147">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1147">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1147">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1148" s="1">
         <v>40299</v>
       </c>
@@ -38621,8 +40635,24 @@
       <c r="T1148" s="3">
         <v>241.07499999999999</v>
       </c>
-    </row>
-    <row r="1149" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1148">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1148">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1148">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1148">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1148">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1149" s="1">
         <v>40330</v>
       </c>
@@ -38662,8 +40692,24 @@
       <c r="T1149" s="3">
         <v>240.81700000000001</v>
       </c>
-    </row>
-    <row r="1150" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1149">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1149">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1149">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1149">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1149">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1150" s="1">
         <v>40360</v>
       </c>
@@ -38704,8 +40750,24 @@
       <c r="T1150" s="3">
         <v>241.14699999999999</v>
       </c>
-    </row>
-    <row r="1151" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1150">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1150">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1150">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1150">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1150">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1151" s="1">
         <v>40391</v>
       </c>
@@ -38745,8 +40807,24 @@
       <c r="T1151" s="3">
         <v>241.56899999999999</v>
       </c>
-    </row>
-    <row r="1152" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1151">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1151">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1151">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1151">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1151">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1152" s="1">
         <v>40422</v>
       </c>
@@ -38782,8 +40860,24 @@
       <c r="T1152" s="3">
         <v>241.48500000000001</v>
       </c>
-    </row>
-    <row r="1153" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1152">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1152">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1152">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1152">
+        <f t="shared" si="1"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1152">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1153" s="1">
         <v>40452</v>
       </c>
@@ -38823,8 +40917,24 @@
       <c r="T1153" s="3">
         <v>241.98099999999999</v>
       </c>
-    </row>
-    <row r="1154" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1153">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1153">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1153">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1153">
+        <f t="shared" ref="X1153:X1216" si="2">W1153</f>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1153">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1154" s="1">
         <v>40483</v>
       </c>
@@ -38860,8 +40970,24 @@
       <c r="T1154" s="3">
         <v>241.96</v>
       </c>
-    </row>
-    <row r="1155" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1154">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1154">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1154">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1154">
+        <f t="shared" si="2"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1154">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1155" s="1">
         <v>40513</v>
       </c>
@@ -38901,8 +41027,24 @@
       <c r="T1155" s="3">
         <v>241.874</v>
       </c>
-    </row>
-    <row r="1156" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1155">
+        <v>134.40700000000001</v>
+      </c>
+      <c r="V1155">
+        <v>227.46899999999999</v>
+      </c>
+      <c r="W1155">
+        <v>133.68899999999999</v>
+      </c>
+      <c r="X1155">
+        <f t="shared" si="2"/>
+        <v>133.68899999999999</v>
+      </c>
+      <c r="Y1155">
+        <v>134.40700000000001</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1156" s="1">
         <v>40544</v>
       </c>
@@ -38951,8 +41093,24 @@
       <c r="T1156" s="3">
         <v>242.63900000000001</v>
       </c>
-    </row>
-    <row r="1157" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1156">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1156">
+        <v>233.39</v>
+      </c>
+      <c r="W1156">
+        <v>138.078</v>
+      </c>
+      <c r="X1156">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1156">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1157" s="1">
         <v>40575</v>
       </c>
@@ -38992,8 +41150,24 @@
       <c r="T1157" s="3">
         <v>243.83199999999999</v>
       </c>
-    </row>
-    <row r="1158" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1157">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1157">
+        <v>233.39</v>
+      </c>
+      <c r="W1157">
+        <v>138.078</v>
+      </c>
+      <c r="X1157">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1157">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1158" s="1">
         <v>40603</v>
       </c>
@@ -39029,8 +41203,24 @@
       <c r="T1158" s="3">
         <v>245.61699999999999</v>
       </c>
-    </row>
-    <row r="1159" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1158">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1158">
+        <v>233.39</v>
+      </c>
+      <c r="W1158">
+        <v>138.078</v>
+      </c>
+      <c r="X1158">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1158">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1159" s="1">
         <v>40634</v>
       </c>
@@ -39070,8 +41260,24 @@
       <c r="T1159" s="3">
         <v>246.489</v>
       </c>
-    </row>
-    <row r="1160" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1159">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1159">
+        <v>233.39</v>
+      </c>
+      <c r="W1159">
+        <v>138.078</v>
+      </c>
+      <c r="X1159">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1159">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1160" s="1">
         <v>40664</v>
       </c>
@@ -39107,8 +41313,24 @@
       <c r="T1160" s="3">
         <v>248.07300000000001</v>
       </c>
-    </row>
-    <row r="1161" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1160">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1160">
+        <v>233.39</v>
+      </c>
+      <c r="W1160">
+        <v>138.078</v>
+      </c>
+      <c r="X1160">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1160">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1161" s="1">
         <v>40695</v>
       </c>
@@ -39148,8 +41370,24 @@
       <c r="T1161" s="3">
         <v>248.505</v>
       </c>
-    </row>
-    <row r="1162" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1161">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1161">
+        <v>233.39</v>
+      </c>
+      <c r="W1161">
+        <v>138.078</v>
+      </c>
+      <c r="X1161">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1161">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1162" s="1">
         <v>40725</v>
       </c>
@@ -39190,8 +41428,24 @@
       <c r="T1162" s="3">
         <v>249.16399999999999</v>
       </c>
-    </row>
-    <row r="1163" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1162">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1162">
+        <v>233.39</v>
+      </c>
+      <c r="W1162">
+        <v>138.078</v>
+      </c>
+      <c r="X1162">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1162">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1163" s="1">
         <v>40756</v>
       </c>
@@ -39231,8 +41485,24 @@
       <c r="T1163" s="3">
         <v>250.05799999999999</v>
       </c>
-    </row>
-    <row r="1164" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1163">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1163">
+        <v>233.39</v>
+      </c>
+      <c r="W1163">
+        <v>138.078</v>
+      </c>
+      <c r="X1163">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1163">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1164" s="1">
         <v>40787</v>
       </c>
@@ -39268,8 +41538,24 @@
       <c r="T1164" s="3">
         <v>250.559</v>
       </c>
-    </row>
-    <row r="1165" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1164">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1164">
+        <v>233.39</v>
+      </c>
+      <c r="W1164">
+        <v>138.078</v>
+      </c>
+      <c r="X1164">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1164">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1165" s="1">
         <v>40817</v>
       </c>
@@ -39309,8 +41595,24 @@
       <c r="T1165" s="3">
         <v>250.05099999999999</v>
       </c>
-    </row>
-    <row r="1166" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1165">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1165">
+        <v>233.39</v>
+      </c>
+      <c r="W1165">
+        <v>138.078</v>
+      </c>
+      <c r="X1165">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1165">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1166" s="1">
         <v>40848</v>
       </c>
@@ -39346,8 +41648,24 @@
       <c r="T1166" s="3">
         <v>249.31700000000001</v>
       </c>
-    </row>
-    <row r="1167" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1166">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1166">
+        <v>233.39</v>
+      </c>
+      <c r="W1166">
+        <v>138.078</v>
+      </c>
+      <c r="X1166">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1166">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1167" s="1">
         <v>40878</v>
       </c>
@@ -39387,8 +41705,24 @@
       <c r="T1167" s="3">
         <v>248.30699999999999</v>
       </c>
-    </row>
-    <row r="1168" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1167">
+        <v>139.19999999999999</v>
+      </c>
+      <c r="V1167">
+        <v>233.39</v>
+      </c>
+      <c r="W1167">
+        <v>138.078</v>
+      </c>
+      <c r="X1167">
+        <f t="shared" si="2"/>
+        <v>138.078</v>
+      </c>
+      <c r="Y1167">
+        <v>139.19999999999999</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1168" s="1">
         <v>40909</v>
       </c>
@@ -39437,8 +41771,24 @@
       <c r="T1168" s="3">
         <v>249.322</v>
       </c>
-    </row>
-    <row r="1169" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1168">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1168">
+        <v>239.65</v>
+      </c>
+      <c r="W1168">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1168">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1168">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1169" s="1">
         <v>40940</v>
       </c>
@@ -39478,8 +41828,24 @@
       <c r="T1169" s="3">
         <v>250.285</v>
       </c>
-    </row>
-    <row r="1170" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1169">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1169">
+        <v>239.65</v>
+      </c>
+      <c r="W1169">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1169">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1169">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1170" s="1">
         <v>40969</v>
       </c>
@@ -39515,8 +41881,24 @@
       <c r="T1170" s="3">
         <v>251.887</v>
       </c>
-    </row>
-    <row r="1171" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1170">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1170">
+        <v>239.65</v>
+      </c>
+      <c r="W1170">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1170">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1170">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1171" s="1">
         <v>41000</v>
       </c>
@@ -39556,8 +41938,24 @@
       <c r="T1171" s="3">
         <v>252.34899999999999</v>
       </c>
-    </row>
-    <row r="1172" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1171">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1171">
+        <v>239.65</v>
+      </c>
+      <c r="W1171">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1171">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1171">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1172" s="1">
         <v>41030</v>
       </c>
@@ -39593,8 +41991,24 @@
       <c r="T1172" s="3">
         <v>252.65199999999999</v>
       </c>
-    </row>
-    <row r="1173" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1172">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1172">
+        <v>239.65</v>
+      </c>
+      <c r="W1172">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1172">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1172">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1173" s="1">
         <v>41061</v>
       </c>
@@ -39634,8 +42048,24 @@
       <c r="T1173" s="3">
         <v>252.40600000000001</v>
       </c>
-    </row>
-    <row r="1174" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1173">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1173">
+        <v>239.65</v>
+      </c>
+      <c r="W1173">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1173">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1173">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1174" s="1">
         <v>41091</v>
       </c>
@@ -39676,8 +42106,24 @@
       <c r="T1174" s="3">
         <v>252.01599999999999</v>
       </c>
-    </row>
-    <row r="1175" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1174">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1174">
+        <v>239.65</v>
+      </c>
+      <c r="W1174">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1174">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1174">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1175" s="1">
         <v>41122</v>
       </c>
@@ -39717,8 +42163,24 @@
       <c r="T1175" s="3">
         <v>253.47200000000001</v>
       </c>
-    </row>
-    <row r="1176" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1175">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1175">
+        <v>239.65</v>
+      </c>
+      <c r="W1175">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1175">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1175">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1176" s="1">
         <v>41153</v>
       </c>
@@ -39754,8 +42216,24 @@
       <c r="T1176" s="3">
         <v>254.554</v>
       </c>
-    </row>
-    <row r="1177" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1176">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1176">
+        <v>239.65</v>
+      </c>
+      <c r="W1176">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1176">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1176">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1177" s="1">
         <v>41183</v>
       </c>
@@ -39795,8 +42273,24 @@
       <c r="T1177" s="3">
         <v>254.27699999999999</v>
       </c>
-    </row>
-    <row r="1178" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1177">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1177">
+        <v>239.65</v>
+      </c>
+      <c r="W1177">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1177">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1177">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1178" s="1">
         <v>41214</v>
       </c>
@@ -39832,8 +42326,24 @@
       <c r="T1178" s="3">
         <v>254.285</v>
       </c>
-    </row>
-    <row r="1179" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1178">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1178">
+        <v>239.65</v>
+      </c>
+      <c r="W1178">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1178">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1178">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1179" s="1">
         <v>41244</v>
       </c>
@@ -39873,8 +42383,24 @@
       <c r="T1179" s="3">
         <v>253.55500000000001</v>
       </c>
-    </row>
-    <row r="1180" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1179">
+        <v>142.06800000000001</v>
+      </c>
+      <c r="V1179">
+        <v>239.65</v>
+      </c>
+      <c r="W1179">
+        <v>140.95699999999999</v>
+      </c>
+      <c r="X1179">
+        <f t="shared" si="2"/>
+        <v>140.95699999999999</v>
+      </c>
+      <c r="Y1179">
+        <v>142.06800000000001</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1180" s="1">
         <v>41275</v>
       </c>
@@ -39923,8 +42449,24 @@
       <c r="T1180" s="3">
         <v>254.80699999999999</v>
       </c>
-    </row>
-    <row r="1181" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1180">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1180">
+        <v>245.023</v>
+      </c>
+      <c r="W1180">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1180">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1180">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1181" s="1">
         <v>41306</v>
       </c>
@@ -39964,8 +42506,24 @@
       <c r="T1181" s="3">
         <v>256.23399999999998</v>
       </c>
-    </row>
-    <row r="1182" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1181">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1181">
+        <v>245.023</v>
+      </c>
+      <c r="W1181">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1181">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1181">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1182" s="1">
         <v>41334</v>
       </c>
@@ -40001,8 +42559,24 @@
       <c r="T1182" s="3">
         <v>256.589</v>
       </c>
-    </row>
-    <row r="1183" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1182">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1182">
+        <v>245.023</v>
+      </c>
+      <c r="W1182">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1182">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1182">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1183" s="1">
         <v>41365</v>
       </c>
@@ -40042,8 +42616,24 @@
       <c r="T1183" s="3">
         <v>255.96700000000001</v>
       </c>
-    </row>
-    <row r="1184" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1183">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1183">
+        <v>245.023</v>
+      </c>
+      <c r="W1183">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1183">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1183">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1184" s="1">
         <v>41395</v>
       </c>
@@ -40079,8 +42669,24 @@
       <c r="T1184" s="3">
         <v>256.27</v>
       </c>
-    </row>
-    <row r="1185" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1184">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1184">
+        <v>245.023</v>
+      </c>
+      <c r="W1184">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1184">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1184">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1185" s="1">
         <v>41426</v>
       </c>
@@ -40120,8 +42726,24 @@
       <c r="T1185" s="3">
         <v>256.911</v>
       </c>
-    </row>
-    <row r="1186" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1185">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1185">
+        <v>245.023</v>
+      </c>
+      <c r="W1185">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1185">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1185">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1186" s="1">
         <v>41456</v>
       </c>
@@ -40162,8 +42784,24 @@
       <c r="T1186" s="3">
         <v>257.32600000000002</v>
       </c>
-    </row>
-    <row r="1187" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1186">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1186">
+        <v>245.023</v>
+      </c>
+      <c r="W1186">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1186">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1186">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1187" s="1">
         <v>41487</v>
       </c>
@@ -40203,8 +42841,24 @@
       <c r="T1187" s="3">
         <v>257.65899999999999</v>
       </c>
-    </row>
-    <row r="1188" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1187">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1187">
+        <v>245.023</v>
+      </c>
+      <c r="W1187">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1187">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1187">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1188" s="1">
         <v>41518</v>
       </c>
@@ -40240,8 +42894,24 @@
       <c r="T1188" s="3">
         <v>258.50400000000002</v>
       </c>
-    </row>
-    <row r="1189" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1188">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1188">
+        <v>245.023</v>
+      </c>
+      <c r="W1188">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1188">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1188">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1189" s="1">
         <v>41548</v>
       </c>
@@ -40281,8 +42951,24 @@
       <c r="T1189" s="3">
         <v>257.06900000000002</v>
       </c>
-    </row>
-    <row r="1190" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1189">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1189">
+        <v>245.023</v>
+      </c>
+      <c r="W1189">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1189">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1189">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1190" s="1">
         <v>41579</v>
       </c>
@@ -40318,8 +43004,24 @@
       <c r="T1190" s="3">
         <v>257.37700000000001</v>
       </c>
-    </row>
-    <row r="1191" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1190">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1190">
+        <v>245.023</v>
+      </c>
+      <c r="W1190">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1190">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1190">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1191" s="1">
         <v>41609</v>
       </c>
@@ -40359,8 +43061,24 @@
       <c r="T1191" s="3">
         <v>257.28399999999999</v>
       </c>
-    </row>
-    <row r="1192" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1191">
+        <v>144.31800000000001</v>
+      </c>
+      <c r="V1191">
+        <v>245.023</v>
+      </c>
+      <c r="W1191">
+        <v>142.71600000000001</v>
+      </c>
+      <c r="X1191">
+        <f t="shared" si="2"/>
+        <v>142.71600000000001</v>
+      </c>
+      <c r="Y1191">
+        <v>144.31800000000001</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1192" s="1">
         <v>41640</v>
       </c>
@@ -40409,8 +43127,24 @@
       <c r="T1192" s="3">
         <v>259.596</v>
       </c>
-    </row>
-    <row r="1193" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1192">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1192">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1192">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1192">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1192">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1193" s="1">
         <v>41671</v>
       </c>
@@ -40450,8 +43184,24 @@
       <c r="T1193" s="3">
         <v>259.01900000000001</v>
       </c>
-    </row>
-    <row r="1194" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1193">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1193">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1193">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1193">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1193">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1194" s="1">
         <v>41699</v>
       </c>
@@ -40487,8 +43237,24 @@
       <c r="T1194" s="3">
         <v>259.971</v>
       </c>
-    </row>
-    <row r="1195" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1194">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1194">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1194">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1194">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1194">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1195" s="1">
         <v>41730</v>
       </c>
@@ -40528,8 +43294,24 @@
       <c r="T1195" s="3">
         <v>259.98500000000001</v>
       </c>
-    </row>
-    <row r="1196" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1195">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1195">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1195">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1195">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1195">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1196" s="1">
         <v>41760</v>
       </c>
@@ -40565,8 +43347,24 @@
       <c r="T1196" s="3">
         <v>261.22500000000002</v>
       </c>
-    </row>
-    <row r="1197" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1196">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1196">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1196">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1196">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1196">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1197" s="1">
         <v>41791</v>
       </c>
@@ -40606,8 +43404,24 @@
       <c r="T1197" s="3">
         <v>261.35000000000002</v>
       </c>
-    </row>
-    <row r="1198" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1197">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1197">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1197">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1197">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1197">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1198" s="1">
         <v>41821</v>
       </c>
@@ -40648,8 +43462,24 @@
       <c r="T1198" s="3">
         <v>261.49799999999999</v>
       </c>
-    </row>
-    <row r="1199" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1198">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1198">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1198">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1198">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1198">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1199" s="1">
         <v>41852</v>
       </c>
@@ -40689,8 +43519,24 @@
       <c r="T1199" s="3">
         <v>261.07499999999999</v>
       </c>
-    </row>
-    <row r="1200" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1199">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1199">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1199">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1199">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1199">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1200" s="1">
         <v>41883</v>
       </c>
@@ -40726,8 +43572,24 @@
       <c r="T1200" s="3">
         <v>261.07400000000001</v>
       </c>
-    </row>
-    <row r="1201" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1200">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1200">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1200">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1200">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1200">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1201" s="1">
         <v>41913</v>
       </c>
@@ -40767,8 +43629,24 @@
       <c r="T1201" s="3">
         <v>260.5</v>
       </c>
-    </row>
-    <row r="1202" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1201">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1201">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1201">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1201">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1201">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1202" s="1">
         <v>41944</v>
       </c>
@@ -40804,8 +43682,24 @@
       <c r="T1202" s="3">
         <v>259.38200000000001</v>
       </c>
-    </row>
-    <row r="1203" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1202">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1202">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1202">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1202">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1202">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1203" s="1">
         <v>41974</v>
       </c>
@@ -40845,8 +43739,24 @@
       <c r="T1203" s="3">
         <v>258.08</v>
       </c>
-    </row>
-    <row r="1204" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1203">
+        <v>146.54900000000001</v>
+      </c>
+      <c r="V1203">
+        <v>251.98500000000001</v>
+      </c>
+      <c r="W1203">
+        <v>145.08699999999999</v>
+      </c>
+      <c r="X1203">
+        <f t="shared" si="2"/>
+        <v>145.08699999999999</v>
+      </c>
+      <c r="Y1203">
+        <v>146.54900000000001</v>
+      </c>
+    </row>
+    <row r="1204" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1204" s="1">
         <v>42005</v>
       </c>
@@ -40895,8 +43805,24 @@
       <c r="T1204" s="3">
         <v>258.37599999999998</v>
       </c>
-    </row>
-    <row r="1205" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1204">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1204">
+        <v>258.572</v>
+      </c>
+      <c r="W1204">
+        <v>144.24</v>
+      </c>
+      <c r="X1204">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1204">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1205" s="1">
         <v>42036</v>
       </c>
@@ -40936,8 +43862,24 @@
       <c r="T1205" s="3">
         <v>259.24</v>
       </c>
-    </row>
-    <row r="1206" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1205">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1205">
+        <v>258.572</v>
+      </c>
+      <c r="W1205">
+        <v>144.24</v>
+      </c>
+      <c r="X1205">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1205">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1206" s="1">
         <v>42064</v>
       </c>
@@ -40973,8 +43915,24 @@
       <c r="T1206" s="3">
         <v>259.64699999999999</v>
       </c>
-    </row>
-    <row r="1207" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1206">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1206">
+        <v>258.572</v>
+      </c>
+      <c r="W1206">
+        <v>144.24</v>
+      </c>
+      <c r="X1206">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1206">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1207" s="1">
         <v>42095</v>
       </c>
@@ -41014,8 +43972,24 @@
       <c r="T1207" s="3">
         <v>259.959</v>
       </c>
-    </row>
-    <row r="1208" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1207">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1207">
+        <v>258.572</v>
+      </c>
+      <c r="W1207">
+        <v>144.24</v>
+      </c>
+      <c r="X1207">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1207">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1208" s="1">
         <v>42125</v>
       </c>
@@ -41051,8 +44025,24 @@
       <c r="T1208" s="3">
         <v>261.06599999999997</v>
       </c>
-    </row>
-    <row r="1209" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1208">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1208">
+        <v>258.572</v>
+      </c>
+      <c r="W1208">
+        <v>144.24</v>
+      </c>
+      <c r="X1208">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1208">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1209" s="1">
         <v>42156</v>
       </c>
@@ -41092,8 +44082,24 @@
       <c r="T1209" s="3">
         <v>261.512</v>
       </c>
-    </row>
-    <row r="1210" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1209">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1209">
+        <v>258.572</v>
+      </c>
+      <c r="W1209">
+        <v>144.24</v>
+      </c>
+      <c r="X1209">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1209">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1210" s="1">
         <v>42186</v>
       </c>
@@ -41134,8 +44140,24 @@
       <c r="T1210" s="3">
         <v>261.19900000000001</v>
       </c>
-    </row>
-    <row r="1211" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1210">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1210">
+        <v>258.572</v>
+      </c>
+      <c r="W1210">
+        <v>144.24</v>
+      </c>
+      <c r="X1210">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1210">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1211" s="1">
         <v>42217</v>
       </c>
@@ -41175,8 +44197,24 @@
       <c r="T1211" s="3">
         <v>261.34699999999998</v>
       </c>
-    </row>
-    <row r="1212" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1211">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1211">
+        <v>258.572</v>
+      </c>
+      <c r="W1211">
+        <v>144.24</v>
+      </c>
+      <c r="X1211">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1211">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1212" s="1">
         <v>42248</v>
       </c>
@@ -41212,8 +44250,24 @@
       <c r="T1212" s="3">
         <v>261.887</v>
       </c>
-    </row>
-    <row r="1213" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1212">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1212">
+        <v>258.572</v>
+      </c>
+      <c r="W1212">
+        <v>144.24</v>
+      </c>
+      <c r="X1212">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1212">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1213" s="1">
         <v>42278</v>
       </c>
@@ -41253,8 +44307,24 @@
       <c r="T1213" s="3">
         <v>261.51499999999999</v>
       </c>
-    </row>
-    <row r="1214" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1213">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1213">
+        <v>258.572</v>
+      </c>
+      <c r="W1213">
+        <v>144.24</v>
+      </c>
+      <c r="X1213">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1213">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1214" s="1">
         <v>42309</v>
       </c>
@@ -41290,8 +44360,24 @@
       <c r="T1214" s="3">
         <v>261.00900000000001</v>
       </c>
-    </row>
-    <row r="1215" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1214">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1214">
+        <v>258.572</v>
+      </c>
+      <c r="W1214">
+        <v>144.24</v>
+      </c>
+      <c r="X1214">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1214">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1215" s="1">
         <v>42339</v>
       </c>
@@ -41331,8 +44417,24 @@
       <c r="T1215" s="3">
         <v>259.94099999999997</v>
       </c>
-    </row>
-    <row r="1216" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1215">
+        <v>145.92599999999999</v>
+      </c>
+      <c r="V1215">
+        <v>258.572</v>
+      </c>
+      <c r="W1215">
+        <v>144.24</v>
+      </c>
+      <c r="X1215">
+        <f t="shared" si="2"/>
+        <v>144.24</v>
+      </c>
+      <c r="Y1215">
+        <v>145.92599999999999</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1216" s="1">
         <v>42370</v>
       </c>
@@ -41381,8 +44483,24 @@
       <c r="T1216" s="3">
         <v>260.34199999999998</v>
       </c>
-    </row>
-    <row r="1217" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1216">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1216">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1216">
+        <v>145.227</v>
+      </c>
+      <c r="X1216">
+        <f t="shared" si="2"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1216">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1217" s="1">
         <v>42401</v>
       </c>
@@ -41422,8 +44540,24 @@
       <c r="T1217" s="3">
         <v>260.875</v>
       </c>
-    </row>
-    <row r="1218" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1217">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1217">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1217">
+        <v>145.227</v>
+      </c>
+      <c r="X1217">
+        <f t="shared" ref="X1217:X1280" si="3">W1217</f>
+        <v>145.227</v>
+      </c>
+      <c r="Y1217">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1218" s="1">
         <v>42430</v>
       </c>
@@ -41459,8 +44593,24 @@
       <c r="T1218" s="3">
         <v>261.50799999999998</v>
       </c>
-    </row>
-    <row r="1219" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1218">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1218">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1218">
+        <v>145.227</v>
+      </c>
+      <c r="X1218">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1218">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1219" s="1">
         <v>42461</v>
       </c>
@@ -41500,8 +44650,24 @@
       <c r="T1219" s="3">
         <v>262.61900000000003</v>
       </c>
-    </row>
-    <row r="1220" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1219">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1219">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1219">
+        <v>145.227</v>
+      </c>
+      <c r="X1219">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1219">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1220" s="1">
         <v>42491</v>
       </c>
@@ -41537,8 +44703,24 @@
       <c r="T1220" s="3">
         <v>263.31200000000001</v>
       </c>
-    </row>
-    <row r="1221" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1220">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1220">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1220">
+        <v>145.227</v>
+      </c>
+      <c r="X1220">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1220">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1221" s="1">
         <v>42522</v>
       </c>
@@ -41578,8 +44760,24 @@
       <c r="T1221" s="3">
         <v>263.87700000000001</v>
       </c>
-    </row>
-    <row r="1222" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1221">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1221">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1221">
+        <v>145.227</v>
+      </c>
+      <c r="X1221">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1221">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1222" s="1">
         <v>42552</v>
       </c>
@@ -41620,8 +44818,24 @@
       <c r="T1222" s="3">
         <v>263.72199999999998</v>
       </c>
-    </row>
-    <row r="1223" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1222">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1222">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1222">
+        <v>145.227</v>
+      </c>
+      <c r="X1222">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1222">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1223" s="1">
         <v>42583</v>
       </c>
@@ -41661,8 +44875,24 @@
       <c r="T1223" s="3">
         <v>264.16000000000003</v>
       </c>
-    </row>
-    <row r="1224" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1223">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1223">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1223">
+        <v>145.227</v>
+      </c>
+      <c r="X1223">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1223">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1224" s="1">
         <v>42614</v>
       </c>
@@ -41698,8 +44928,24 @@
       <c r="T1224" s="3">
         <v>264.60199999999998</v>
       </c>
-    </row>
-    <row r="1225" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1224">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1224">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1224">
+        <v>145.227</v>
+      </c>
+      <c r="X1224">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1224">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1225" s="1">
         <v>42644</v>
       </c>
@@ -41739,8 +44985,24 @@
       <c r="T1225" s="3">
         <v>264.738</v>
       </c>
-    </row>
-    <row r="1226" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1225">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1225">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1225">
+        <v>145.227</v>
+      </c>
+      <c r="X1225">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1225">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1226" s="1">
         <v>42675</v>
       </c>
@@ -41776,8 +45038,24 @@
       <c r="T1226" s="3">
         <v>265.20299999999997</v>
       </c>
-    </row>
-    <row r="1227" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1226">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1226">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1226">
+        <v>145.227</v>
+      </c>
+      <c r="X1226">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1226">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1227" s="1">
         <v>42705</v>
       </c>
@@ -41817,8 +45095,24 @@
       <c r="T1227" s="3">
         <v>265.42099999999999</v>
       </c>
-    </row>
-    <row r="1228" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1227">
+        <v>147.31100000000001</v>
+      </c>
+      <c r="V1227">
+        <v>266.34399999999999</v>
+      </c>
+      <c r="W1227">
+        <v>145.227</v>
+      </c>
+      <c r="X1227">
+        <f t="shared" si="3"/>
+        <v>145.227</v>
+      </c>
+      <c r="Y1227">
+        <v>147.31100000000001</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1228" s="1">
         <v>42736</v>
       </c>
@@ -41867,8 +45161,24 @@
       <c r="T1228" s="3">
         <v>266.91699999999997</v>
       </c>
-    </row>
-    <row r="1229" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1228">
+        <v>150.334</v>
+      </c>
+      <c r="V1228">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1228">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1228">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1228">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1229" s="1">
         <v>42767</v>
       </c>
@@ -41908,8 +45218,24 @@
       <c r="T1229" s="3">
         <v>267.66199999999998</v>
       </c>
-    </row>
-    <row r="1230" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1229">
+        <v>150.334</v>
+      </c>
+      <c r="V1229">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1229">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1229">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1229">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1230" s="1">
         <v>42795</v>
       </c>
@@ -41945,8 +45271,24 @@
       <c r="T1230" s="3">
         <v>267.58199999999999</v>
       </c>
-    </row>
-    <row r="1231" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1230">
+        <v>150.334</v>
+      </c>
+      <c r="V1230">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1230">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1230">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1230">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1231" s="1">
         <v>42826</v>
       </c>
@@ -41986,8 +45328,24 @@
       <c r="T1231" s="3">
         <v>267.94799999999998</v>
       </c>
-    </row>
-    <row r="1232" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1231">
+        <v>150.334</v>
+      </c>
+      <c r="V1231">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1231">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1231">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1231">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1232" s="1">
         <v>42856</v>
       </c>
@@ -42023,8 +45381,24 @@
       <c r="T1232" s="3">
         <v>268.18299999999999</v>
       </c>
-    </row>
-    <row r="1233" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1232">
+        <v>150.334</v>
+      </c>
+      <c r="V1232">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1232">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1232">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1232">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1233" s="1">
         <v>42887</v>
       </c>
@@ -42064,8 +45438,24 @@
       <c r="T1233" s="3">
         <v>268.666</v>
       </c>
-    </row>
-    <row r="1234" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1233">
+        <v>150.334</v>
+      </c>
+      <c r="V1233">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1233">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1233">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1233">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1234" s="1">
         <v>42917</v>
       </c>
@@ -42106,8 +45496,24 @@
       <c r="T1234" s="3">
         <v>268.05099999999999</v>
       </c>
-    </row>
-    <row r="1235" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1234">
+        <v>150.334</v>
+      </c>
+      <c r="V1234">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1234">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1234">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1234">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1235" s="1">
         <v>42948</v>
       </c>
@@ -42147,8 +45553,24 @@
       <c r="T1235" s="3">
         <v>268.65699999999998</v>
       </c>
-    </row>
-    <row r="1236" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1235">
+        <v>150.334</v>
+      </c>
+      <c r="V1235">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1235">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1235">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1235">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1236" s="1">
         <v>42979</v>
       </c>
@@ -42184,8 +45606,24 @@
       <c r="T1236" s="3">
         <v>270.05900000000003</v>
       </c>
-    </row>
-    <row r="1237" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1236">
+        <v>150.334</v>
+      </c>
+      <c r="V1236">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1236">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1236">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1236">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1237" s="1">
         <v>43009</v>
       </c>
@@ -42225,8 +45663,24 @@
       <c r="T1237" s="3">
         <v>269.57499999999999</v>
       </c>
-    </row>
-    <row r="1238" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1237">
+        <v>150.334</v>
+      </c>
+      <c r="V1237">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1237">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1237">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1237">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1238" s="1">
         <v>43040</v>
       </c>
@@ -42262,8 +45716,24 @@
       <c r="T1238" s="3">
         <v>269.38099999999997</v>
       </c>
-    </row>
-    <row r="1239" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1238">
+        <v>150.334</v>
+      </c>
+      <c r="V1238">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1238">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1238">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1238">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1239" s="1">
         <v>43070</v>
       </c>
@@ -42305,8 +45775,24 @@
       <c r="T1239" s="3">
         <v>269.56400000000002</v>
       </c>
-    </row>
-    <row r="1240" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1239">
+        <v>150.334</v>
+      </c>
+      <c r="V1239">
+        <v>274.92399999999998</v>
+      </c>
+      <c r="W1239">
+        <v>147.30799999999999</v>
+      </c>
+      <c r="X1239">
+        <f t="shared" si="3"/>
+        <v>147.30799999999999</v>
+      </c>
+      <c r="Y1239">
+        <v>150.334</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1240" s="1">
         <v>43101</v>
       </c>
@@ -42353,8 +45839,24 @@
       <c r="T1240" s="3">
         <v>270.77100000000002</v>
       </c>
-    </row>
-    <row r="1241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1240">
+        <v>153.447</v>
+      </c>
+      <c r="V1240">
+        <v>285.55</v>
+      </c>
+      <c r="W1240">
+        <v>149.721</v>
+      </c>
+      <c r="X1240">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1240">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1241" s="1">
         <v>43132</v>
       </c>
@@ -42396,8 +45898,24 @@
       <c r="T1241" s="3">
         <v>272.214</v>
       </c>
-    </row>
-    <row r="1242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1241">
+        <v>153.447</v>
+      </c>
+      <c r="V1241">
+        <v>285.55</v>
+      </c>
+      <c r="W1241">
+        <v>149.721</v>
+      </c>
+      <c r="X1241">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1241">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1242" s="1">
         <v>43160</v>
       </c>
@@ -42431,8 +45949,24 @@
       <c r="T1242" s="3">
         <v>272.19600000000003</v>
       </c>
-    </row>
-    <row r="1243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1242">
+        <v>153.447</v>
+      </c>
+      <c r="V1242">
+        <v>285.55</v>
+      </c>
+      <c r="W1242">
+        <v>149.721</v>
+      </c>
+      <c r="X1242">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1242">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1243" s="1">
         <v>43191</v>
       </c>
@@ -42474,8 +46008,24 @@
       <c r="T1243" s="3">
         <v>272.95</v>
       </c>
-    </row>
-    <row r="1244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1243">
+        <v>153.447</v>
+      </c>
+      <c r="V1243">
+        <v>285.55</v>
+      </c>
+      <c r="W1243">
+        <v>149.721</v>
+      </c>
+      <c r="X1243">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1243">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1244" s="1">
         <v>43221</v>
       </c>
@@ -42509,8 +46059,24 @@
       <c r="T1244" s="3">
         <v>274.00099999999998</v>
       </c>
-    </row>
-    <row r="1245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1244">
+        <v>153.447</v>
+      </c>
+      <c r="V1244">
+        <v>285.55</v>
+      </c>
+      <c r="W1244">
+        <v>149.721</v>
+      </c>
+      <c r="X1244">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1244">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1245" s="1">
         <v>43252</v>
       </c>
@@ -42552,8 +46118,24 @@
       <c r="T1245" s="3">
         <v>274.17</v>
       </c>
-    </row>
-    <row r="1246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1245">
+        <v>153.447</v>
+      </c>
+      <c r="V1245">
+        <v>285.55</v>
+      </c>
+      <c r="W1245">
+        <v>149.721</v>
+      </c>
+      <c r="X1245">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1245">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1246" s="1">
         <v>43282</v>
       </c>
@@ -42592,8 +46174,24 @@
       <c r="T1246" s="3">
         <v>274.07299999999998</v>
       </c>
-    </row>
-    <row r="1247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1246">
+        <v>153.447</v>
+      </c>
+      <c r="V1246">
+        <v>285.55</v>
+      </c>
+      <c r="W1246">
+        <v>149.721</v>
+      </c>
+      <c r="X1246">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1246">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1247" s="1">
         <v>43313</v>
       </c>
@@ -42635,8 +46233,24 @@
       <c r="T1247" s="3">
         <v>274.44099999999997</v>
       </c>
-    </row>
-    <row r="1248" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1247">
+        <v>153.447</v>
+      </c>
+      <c r="V1247">
+        <v>285.55</v>
+      </c>
+      <c r="W1247">
+        <v>149.721</v>
+      </c>
+      <c r="X1247">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1247">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1248" s="1">
         <v>43344</v>
       </c>
@@ -42670,8 +46284,24 @@
       <c r="T1248" s="3">
         <v>275.45499999999998</v>
       </c>
-    </row>
-    <row r="1249" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1248">
+        <v>153.447</v>
+      </c>
+      <c r="V1248">
+        <v>285.55</v>
+      </c>
+      <c r="W1248">
+        <v>149.721</v>
+      </c>
+      <c r="X1248">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1248">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1249" s="1">
         <v>43374</v>
       </c>
@@ -42713,8 +46343,24 @@
       <c r="T1249" s="3">
         <v>275.101</v>
       </c>
-    </row>
-    <row r="1250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1249">
+        <v>153.447</v>
+      </c>
+      <c r="V1249">
+        <v>285.55</v>
+      </c>
+      <c r="W1249">
+        <v>149.721</v>
+      </c>
+      <c r="X1249">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1249">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1250" s="1">
         <v>43405</v>
       </c>
@@ -42748,8 +46394,24 @@
       <c r="T1250" s="3">
         <v>274.47800000000001</v>
       </c>
-    </row>
-    <row r="1251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1250">
+        <v>153.447</v>
+      </c>
+      <c r="V1250">
+        <v>285.55</v>
+      </c>
+      <c r="W1250">
+        <v>149.721</v>
+      </c>
+      <c r="X1250">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1250">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1251" s="1">
         <v>43435</v>
       </c>
@@ -42791,8 +46453,24 @@
       <c r="T1251" s="3">
         <v>273.83600000000001</v>
       </c>
-    </row>
-    <row r="1252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1251">
+        <v>153.447</v>
+      </c>
+      <c r="V1251">
+        <v>285.55</v>
+      </c>
+      <c r="W1251">
+        <v>149.721</v>
+      </c>
+      <c r="X1251">
+        <f t="shared" si="3"/>
+        <v>149.721</v>
+      </c>
+      <c r="Y1251">
+        <v>153.447</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1252" s="1">
         <v>43466</v>
       </c>
@@ -42839,8 +46517,24 @@
       <c r="T1252" s="3">
         <v>275.14400000000001</v>
       </c>
-    </row>
-    <row r="1253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1252">
+        <v>155.489</v>
+      </c>
+      <c r="V1252">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1252">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1252">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1252">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1253" s="1">
         <v>43497</v>
       </c>
@@ -42882,8 +46576,24 @@
       <c r="T1253" s="3">
         <v>275.82299999999998</v>
       </c>
-    </row>
-    <row r="1254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1253">
+        <v>155.489</v>
+      </c>
+      <c r="V1253">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1253">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1253">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1253">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1254" s="1">
         <v>43525</v>
       </c>
@@ -42917,8 +46627,24 @@
       <c r="T1254" s="3">
         <v>276.57</v>
       </c>
-    </row>
-    <row r="1255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1254">
+        <v>155.489</v>
+      </c>
+      <c r="V1254">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1254">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1254">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1254">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1255" s="1">
         <v>43556</v>
       </c>
@@ -42960,8 +46686,24 @@
       <c r="T1255" s="3">
         <v>277.44099999999997</v>
       </c>
-    </row>
-    <row r="1256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1255">
+        <v>155.489</v>
+      </c>
+      <c r="V1255">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1255">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1255">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1255">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1256" s="1">
         <v>43586</v>
       </c>
@@ -42995,8 +46737,24 @@
       <c r="T1256" s="3">
         <v>278.06799999999998</v>
       </c>
-    </row>
-    <row r="1257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1256">
+        <v>155.489</v>
+      </c>
+      <c r="V1256">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1256">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1256">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1256">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1257" s="1">
         <v>43617</v>
       </c>
@@ -43038,8 +46796,24 @@
       <c r="T1257" s="3">
         <v>278.80200000000002</v>
       </c>
-    </row>
-    <row r="1258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1257">
+        <v>155.489</v>
+      </c>
+      <c r="V1257">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1257">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1257">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1257">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1258" s="1">
         <v>43647</v>
       </c>
@@ -43078,8 +46852,24 @@
       <c r="T1258" s="3">
         <v>278.81700000000001</v>
       </c>
-    </row>
-    <row r="1259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1258">
+        <v>155.489</v>
+      </c>
+      <c r="V1258">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1258">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1258">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1258">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1259" s="1">
         <v>43678</v>
       </c>
@@ -43121,8 +46911,24 @@
       <c r="T1259" s="3">
         <v>279.428</v>
       </c>
-    </row>
-    <row r="1260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1259">
+        <v>155.489</v>
+      </c>
+      <c r="V1259">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1259">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1259">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1259">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1260" s="1">
         <v>43709</v>
       </c>
@@ -43156,8 +46962,24 @@
       <c r="T1260" s="3">
         <v>279.33800000000002</v>
       </c>
-    </row>
-    <row r="1261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1260">
+        <v>155.489</v>
+      </c>
+      <c r="V1260">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1260">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1260">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1260">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1261" s="1">
         <v>43739</v>
       </c>
@@ -43199,8 +47021,24 @@
       <c r="T1261" s="3">
         <v>279.255</v>
       </c>
-    </row>
-    <row r="1262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1261">
+        <v>155.489</v>
+      </c>
+      <c r="V1261">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1261">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1261">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1261">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1262" s="1">
         <v>43770</v>
       </c>
@@ -43234,8 +47072,24 @@
       <c r="T1262" s="3">
         <v>279.46800000000002</v>
       </c>
-    </row>
-    <row r="1263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1262">
+        <v>155.489</v>
+      </c>
+      <c r="V1262">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1262">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1262">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1262">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1263" s="1">
         <v>43800</v>
       </c>
@@ -43277,8 +47131,24 @@
       <c r="T1263" s="3">
         <v>279.81599999999997</v>
       </c>
-    </row>
-    <row r="1264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1263">
+        <v>155.489</v>
+      </c>
+      <c r="V1263">
+        <v>295.00400000000002</v>
+      </c>
+      <c r="W1263">
+        <v>151.92400000000001</v>
+      </c>
+      <c r="X1263">
+        <f t="shared" si="3"/>
+        <v>151.92400000000001</v>
+      </c>
+      <c r="Y1263">
+        <v>155.489</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1264" s="1">
         <v>43831</v>
       </c>
@@ -43325,8 +47195,24 @@
       <c r="T1264" s="3">
         <v>282.02</v>
       </c>
-    </row>
-    <row r="1265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1264">
+        <v>157.077</v>
+      </c>
+      <c r="V1264">
+        <v>300.084</v>
+      </c>
+      <c r="W1264">
+        <v>153.28</v>
+      </c>
+      <c r="X1264">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1264">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1265" s="1">
         <v>43862</v>
       </c>
@@ -43368,8 +47254,24 @@
       <c r="T1265" s="3">
         <v>282.577</v>
       </c>
-    </row>
-    <row r="1266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1265">
+        <v>157.077</v>
+      </c>
+      <c r="V1265">
+        <v>300.084</v>
+      </c>
+      <c r="W1265">
+        <v>153.28</v>
+      </c>
+      <c r="X1265">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1265">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1266" s="1">
         <v>43891</v>
       </c>
@@ -43403,8 +47305,24 @@
       <c r="T1266" s="3">
         <v>281.97500000000002</v>
       </c>
-    </row>
-    <row r="1267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1266">
+        <v>157.077</v>
+      </c>
+      <c r="V1266">
+        <v>300.084</v>
+      </c>
+      <c r="W1266">
+        <v>153.28</v>
+      </c>
+      <c r="X1266">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1266">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1267" s="1">
         <v>43922</v>
       </c>
@@ -43446,8 +47364,24 @@
       <c r="T1267" s="3">
         <v>280.62299999999999</v>
       </c>
-    </row>
-    <row r="1268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1267">
+        <v>157.077</v>
+      </c>
+      <c r="V1267">
+        <v>300.084</v>
+      </c>
+      <c r="W1267">
+        <v>153.28</v>
+      </c>
+      <c r="X1267">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1267">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1268" s="1">
         <v>43952</v>
       </c>
@@ -43481,8 +47415,24 @@
       <c r="T1268" s="3">
         <v>282.09199999999998</v>
       </c>
-    </row>
-    <row r="1269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1268">
+        <v>157.077</v>
+      </c>
+      <c r="V1268">
+        <v>300.084</v>
+      </c>
+      <c r="W1268">
+        <v>153.28</v>
+      </c>
+      <c r="X1268">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1268">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1269" s="1">
         <v>43983</v>
       </c>
@@ -43524,8 +47474,24 @@
       <c r="T1269" s="3">
         <v>282.33300000000003</v>
       </c>
-    </row>
-    <row r="1270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1269">
+        <v>157.077</v>
+      </c>
+      <c r="V1269">
+        <v>300.084</v>
+      </c>
+      <c r="W1269">
+        <v>153.28</v>
+      </c>
+      <c r="X1269">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1269">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1270" s="1">
         <v>44013</v>
       </c>
@@ -43564,8 +47530,24 @@
       <c r="T1270" s="3">
         <v>283.62400000000002</v>
       </c>
-    </row>
-    <row r="1271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1270">
+        <v>157.077</v>
+      </c>
+      <c r="V1270">
+        <v>300.084</v>
+      </c>
+      <c r="W1270">
+        <v>153.28</v>
+      </c>
+      <c r="X1270">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1270">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1271" s="1">
         <v>44044</v>
       </c>
@@ -43607,8 +47589,24 @@
       <c r="T1271" s="3">
         <v>283.47800000000001</v>
       </c>
-    </row>
-    <row r="1272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1271">
+        <v>157.077</v>
+      </c>
+      <c r="V1271">
+        <v>300.084</v>
+      </c>
+      <c r="W1271">
+        <v>153.28</v>
+      </c>
+      <c r="X1271">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1271">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1272" s="1">
         <v>44075</v>
       </c>
@@ -43642,8 +47640,24 @@
       <c r="T1272" s="3">
         <v>284.55099999999999</v>
       </c>
-    </row>
-    <row r="1273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1272">
+        <v>157.077</v>
+      </c>
+      <c r="V1272">
+        <v>300.084</v>
+      </c>
+      <c r="W1272">
+        <v>153.28</v>
+      </c>
+      <c r="X1272">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1272">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1273" s="1">
         <v>44105</v>
       </c>
@@ -43685,8 +47699,24 @@
       <c r="T1273" s="3">
         <v>284.12099999999998</v>
       </c>
-    </row>
-    <row r="1274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1273">
+        <v>157.077</v>
+      </c>
+      <c r="V1273">
+        <v>300.084</v>
+      </c>
+      <c r="W1273">
+        <v>153.28</v>
+      </c>
+      <c r="X1273">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1273">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1274" s="1">
         <v>44136</v>
       </c>
@@ -43720,8 +47750,24 @@
       <c r="T1274" s="3">
         <v>283.291</v>
       </c>
-    </row>
-    <row r="1275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1274">
+        <v>157.077</v>
+      </c>
+      <c r="V1274">
+        <v>300.084</v>
+      </c>
+      <c r="W1274">
+        <v>153.28</v>
+      </c>
+      <c r="X1274">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1274">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1275" s="1">
         <v>44166</v>
       </c>
@@ -43763,8 +47809,24 @@
       <c r="T1275" s="3">
         <v>284.35000000000002</v>
       </c>
-    </row>
-    <row r="1276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1275">
+        <v>157.077</v>
+      </c>
+      <c r="V1275">
+        <v>300.084</v>
+      </c>
+      <c r="W1275">
+        <v>153.28</v>
+      </c>
+      <c r="X1275">
+        <f t="shared" si="3"/>
+        <v>153.28</v>
+      </c>
+      <c r="Y1275">
+        <v>157.077</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1276" s="1">
         <v>44197</v>
       </c>
@@ -43803,8 +47865,24 @@
       <c r="T1276" s="3">
         <v>285.52499999999998</v>
       </c>
-    </row>
-    <row r="1277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1276">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1276">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1276">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1276">
+        <f t="shared" si="3"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1276">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1277" s="1">
         <v>44228</v>
       </c>
@@ -43846,8 +47924,24 @@
       <c r="T1277" s="3">
         <v>286.47399999999999</v>
       </c>
-    </row>
-    <row r="1278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1277">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1277">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1277">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1277">
+        <f t="shared" si="3"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1277">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1278" s="1">
         <v>44256</v>
       </c>
@@ -43881,8 +47975,24 @@
       <c r="T1278" s="3">
         <v>287.48099999999999</v>
       </c>
-    </row>
-    <row r="1279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1278">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1278">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1278">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1278">
+        <f t="shared" si="3"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1278">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1279" s="1">
         <v>44287</v>
       </c>
@@ -43924,8 +48034,24 @@
       <c r="T1279" s="3">
         <v>289.49299999999999</v>
       </c>
-    </row>
-    <row r="1280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1279">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1279">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1279">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1279">
+        <f t="shared" si="3"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1279">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1280" s="1">
         <v>44317</v>
       </c>
@@ -43959,8 +48085,24 @@
       <c r="T1280" s="3">
         <v>290.99099999999999</v>
       </c>
-    </row>
-    <row r="1281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1280">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1280">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1280">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1280">
+        <f t="shared" si="3"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1280">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1281" s="1">
         <v>44348</v>
       </c>
@@ -44002,8 +48144,24 @@
       <c r="T1281" s="3">
         <v>293.87200000000001</v>
       </c>
-    </row>
-    <row r="1282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1281">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1281">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1281">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1281">
+        <f t="shared" ref="X1281:X1285" si="4">W1281</f>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1281">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1282" s="1">
         <v>44378</v>
       </c>
@@ -44037,8 +48195,24 @@
       <c r="T1282" s="3">
         <v>293.553</v>
       </c>
-    </row>
-    <row r="1283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1282">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1282">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1282">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1282">
+        <f t="shared" si="4"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1282">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1283" s="1">
         <v>44409</v>
       </c>
@@ -44080,8 +48254,24 @@
       <c r="T1283" s="3">
         <v>293.92700000000002</v>
       </c>
-    </row>
-    <row r="1284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1283">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1283">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1283">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1283">
+        <f t="shared" si="4"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1283">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1284" s="1">
         <v>44440</v>
       </c>
@@ -44115,8 +48305,24 @@
       <c r="T1284" s="3">
         <v>295.488</v>
       </c>
-    </row>
-    <row r="1285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1284">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1284">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1284">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1284">
+        <f t="shared" si="4"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1284">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1285" s="1">
         <v>44470</v>
       </c>
@@ -44141,11 +48347,27 @@
       <c r="T1285">
         <v>296.47199999999998</v>
       </c>
-    </row>
-    <row r="1286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U1285">
+        <v>164.91218181818178</v>
+      </c>
+      <c r="V1285">
+        <v>309.54700000000003</v>
+      </c>
+      <c r="W1285">
+        <v>161.12372727272725</v>
+      </c>
+      <c r="X1285">
+        <f t="shared" si="4"/>
+        <v>161.12372727272725</v>
+      </c>
+      <c r="Y1285">
+        <v>164.91218181818178</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1286" s="1"/>
     </row>
-    <row r="1287" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1287" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1287" s="1"/>
     </row>
   </sheetData>
